--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="121">
   <si>
     <t>Doi</t>
   </si>
@@ -536,6 +536,94 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,   Valentina%Ponzo%NULL%1,   Rosalba%Rosato%NULL%1,   Elena%Scumaci%NULL%1,   Ilaria%Goitre%NULL%1,   Andrea%Benso%NULL%1,   Sara%Belcastro%NULL%1,   Chiara%Crespi%NULL%1,   Franco%De Michieli%NULL%1,   Ezio%Ghigo%NULL%1,   Fabio%Broglio%NULL%1,   Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
+Methods
+id="Par2"&gt;This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
+ Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
+Results
+id="Par3"&gt;Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
+ Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
+ Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
+ − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
+Conclusions
+id="Par4"&gt;Many patients experienced stress and exercised less due to the COVID-19 pandemic.
+ Glycemic control in patients with T1D was worse than that in the previous year.
+ Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
+</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,    Chihiro%Munekawa%NULL%1,    Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,    Takuro%Okamura%NULL%2,    Takuro%Okamura%NULL%0,    Fuyuko%Takahashi%NULL%1,    Rena%Kawano%NULL%1,    Hanako%Nakajima%NULL%1,    Saori%Majima%NULL%1,    Takafumi%Senmaru%NULL%1,    Naoko%Nakanishi%NULL%1,    Emi%Ushigome%NULL%1,    Masahide%Hamaguchi%NULL%1,    Masahiro%Yamazaki%NULL%1,    Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
+Methods
+This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
+ Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
+Results
+id="Par3"&gt;Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
+ Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
+ Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
+ − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
+Conclusions
+id="Par4"&gt;Many patients experienced stress and exercised less due to the COVID-19 pandemic.
+ Glycemic control in patients with T1D was worse than that in the previous year.
+ Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
+</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,     Chihiro%Munekawa%NULL%1,     Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,     Takuro%Okamura%NULL%2,     Takuro%Okamura%NULL%0,     Fuyuko%Takahashi%NULL%1,     Rena%Kawano%NULL%1,     Hanako%Nakajima%NULL%1,     Saori%Majima%NULL%1,     Takafumi%Senmaru%NULL%1,     Naoko%Nakanishi%NULL%1,     Emi%Ushigome%NULL%1,     Masahide%Hamaguchi%NULL%1,     Masahiro%Yamazaki%NULL%1,     Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
+Methods
+This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
+ Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
+Results
+Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
+ Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
+ Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
+ − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
+Conclusions
+id="Par4"&gt;Many patients experienced stress and exercised less due to the COVID-19 pandemic.
+ Glycemic control in patients with T1D was worse than that in the previous year.
+ Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
+</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,      Chihiro%Munekawa%NULL%1,      Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,      Takuro%Okamura%NULL%2,      Takuro%Okamura%NULL%0,      Fuyuko%Takahashi%NULL%1,      Rena%Kawano%NULL%1,      Hanako%Nakajima%NULL%1,      Saori%Majima%NULL%1,      Takafumi%Senmaru%NULL%1,      Naoko%Nakanishi%NULL%1,      Emi%Ushigome%NULL%1,      Masahide%Hamaguchi%NULL%1,      Masahiro%Yamazaki%NULL%1,      Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
+Methods
+This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
+ Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
+Results
+Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
+ Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
+ Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
+ − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
+Conclusions
+Many patients experienced stress and exercised less due to the COVID-19 pandemic.
+ Glycemic control in patients with T1D was worse than that in the previous year.
+ Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
+</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,       Chihiro%Munekawa%NULL%1,       Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,       Takuro%Okamura%NULL%2,       Takuro%Okamura%NULL%0,       Fuyuko%Takahashi%NULL%1,       Rena%Kawano%NULL%1,       Hanako%Nakajima%NULL%1,       Saori%Majima%NULL%1,       Takafumi%Senmaru%NULL%1,       Naoko%Nakanishi%NULL%1,       Emi%Ushigome%NULL%1,       Masahide%Hamaguchi%NULL%1,       Masahiro%Yamazaki%NULL%1,       Michiaki%Fukui%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1212,10 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="113">
   <si>
     <t>Doi</t>
   </si>
@@ -536,94 +536,6 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,   Valentina%Ponzo%NULL%1,   Rosalba%Rosato%NULL%1,   Elena%Scumaci%NULL%1,   Ilaria%Goitre%NULL%1,   Andrea%Benso%NULL%1,   Sara%Belcastro%NULL%1,   Chiara%Crespi%NULL%1,   Franco%De Michieli%NULL%1,   Ezio%Ghigo%NULL%1,   Fabio%Broglio%NULL%1,   Simona%Bo%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
-Methods
-id="Par2"&gt;This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
- Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
-Results
-id="Par3"&gt;Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
- Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
- Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
- − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
-Conclusions
-id="Par4"&gt;Many patients experienced stress and exercised less due to the COVID-19 pandemic.
- Glycemic control in patients with T1D was worse than that in the previous year.
- Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
-</t>
-  </si>
-  <si>
-    <t>[Yukako%Hosomi%NULL%1,    Chihiro%Munekawa%NULL%1,    Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,    Takuro%Okamura%NULL%2,    Takuro%Okamura%NULL%0,    Fuyuko%Takahashi%NULL%1,    Rena%Kawano%NULL%1,    Hanako%Nakajima%NULL%1,    Saori%Majima%NULL%1,    Takafumi%Senmaru%NULL%1,    Naoko%Nakanishi%NULL%1,    Emi%Ushigome%NULL%1,    Masahide%Hamaguchi%NULL%1,    Masahiro%Yamazaki%NULL%1,    Michiaki%Fukui%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
-Methods
-This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
- Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
-Results
-id="Par3"&gt;Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
- Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
- Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
- − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
-Conclusions
-id="Par4"&gt;Many patients experienced stress and exercised less due to the COVID-19 pandemic.
- Glycemic control in patients with T1D was worse than that in the previous year.
- Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
-</t>
-  </si>
-  <si>
-    <t>[Yukako%Hosomi%NULL%1,     Chihiro%Munekawa%NULL%1,     Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,     Takuro%Okamura%NULL%2,     Takuro%Okamura%NULL%0,     Fuyuko%Takahashi%NULL%1,     Rena%Kawano%NULL%1,     Hanako%Nakajima%NULL%1,     Saori%Majima%NULL%1,     Takafumi%Senmaru%NULL%1,     Naoko%Nakanishi%NULL%1,     Emi%Ushigome%NULL%1,     Masahide%Hamaguchi%NULL%1,     Masahiro%Yamazaki%NULL%1,     Michiaki%Fukui%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
-Methods
-This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
- Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
-Results
-Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
- Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
- Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
- − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
-Conclusions
-id="Par4"&gt;Many patients experienced stress and exercised less due to the COVID-19 pandemic.
- Glycemic control in patients with T1D was worse than that in the previous year.
- Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
-</t>
-  </si>
-  <si>
-    <t>[Yukako%Hosomi%NULL%1,      Chihiro%Munekawa%NULL%1,      Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,      Takuro%Okamura%NULL%2,      Takuro%Okamura%NULL%0,      Fuyuko%Takahashi%NULL%1,      Rena%Kawano%NULL%1,      Hanako%Nakajima%NULL%1,      Saori%Majima%NULL%1,      Takafumi%Senmaru%NULL%1,      Naoko%Nakanishi%NULL%1,      Emi%Ushigome%NULL%1,      Masahide%Hamaguchi%NULL%1,      Masahiro%Yamazaki%NULL%1,      Michiaki%Fukui%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
-Methods
-This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
- Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
-Results
-Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
- Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
- Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
- − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
-Conclusions
-Many patients experienced stress and exercised less due to the COVID-19 pandemic.
- Glycemic control in patients with T1D was worse than that in the previous year.
- Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
-</t>
-  </si>
-  <si>
-    <t>[Yukako%Hosomi%NULL%1,       Chihiro%Munekawa%NULL%1,       Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,       Takuro%Okamura%NULL%2,       Takuro%Okamura%NULL%0,       Fuyuko%Takahashi%NULL%1,       Rena%Kawano%NULL%1,       Hanako%Nakajima%NULL%1,       Saori%Majima%NULL%1,       Takafumi%Senmaru%NULL%1,       Naoko%Nakanishi%NULL%1,       Emi%Ushigome%NULL%1,       Masahide%Hamaguchi%NULL%1,       Masahiro%Yamazaki%NULL%1,       Michiaki%Fukui%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1124,10 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="131">
   <si>
     <t>Doi</t>
   </si>
@@ -536,6 +536,60 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,   Valentina%Ponzo%NULL%1,   Rosalba%Rosato%NULL%1,   Elena%Scumaci%NULL%1,   Ilaria%Goitre%NULL%1,   Andrea%Benso%NULL%1,   Sara%Belcastro%NULL%1,   Chiara%Crespi%NULL%1,   Franco%De Michieli%NULL%1,   Ezio%Ghigo%NULL%1,   Fabio%Broglio%NULL%1,   Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,    Silvia%Brazzo%NULL%1,    Rachele%De Giuseppe%NULL%1,    Ginevra%Biino%NULL%2,    Ginevra%Biino%NULL%0,    Ilaria%Vietti%NULL%1,    Cristina%Pallavicini%NULL%1,    Hellas%Cena%NULL%1,    Emma%Ruiz Moreno%NULL%3,    Emma%Ruiz Moreno%NULL%0,    Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,    Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,    Sandro%Sperandei%NULL%1,    Louise%Freebairn%NULL%1,    Elizabeth%Conroy%NULL%1,    Hir%Jani%NULL%1,    Sandra%Marjanovic%NULL%1,    Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,    Timothy%Olds%NULL%2,    Timothy%Olds%NULL%0,    Ty%Ferguson%NULL%1,    François%Fraysse%NULL%2,    François%Fraysse%NULL%0,    Dorothea%Dumuid%NULL%1,    Adrian%Esterman%NULL%1,    Gilly A.%Hendrie%NULL%1,    Wendy J.%Brown%NULL%1,    Rajini%Lagiseti%NULL%1,    Carol A.%Maher%NULL%1,    Stephanie%Prince Ware%NULL%2,    Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,    Ana-Belén%Fraile-Bermúdez%NULL%2,    Ana-Belén%Fraile-Bermúdez%NULL%0,    Batirtze San%Martín-Gamboa%NULL%2,    Batirtze San%Martín-Gamboa%NULL%0,    Silvia%Cepeda-Miguel%NULL%1,    Borja%Doncel-García%NULL%2,    Borja%Doncel-García%NULL%0,    Ainhoa%Fernandez-Atutxa%NULL%2,    Ainhoa%Fernandez-Atutxa%NULL%0,    Amaia%Irazusta%NULL%1,    Idoia%Zarrazquin%NULL%2,    Idoia%Zarrazquin%NULL%0,    Simona%Bo%NULL%4,    Simona%Bo%NULL%0,    Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,   Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,   Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,   Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,   Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,    Emma%Ward%NULL%2,    Emma%Ward%NULL%0,    Mizanur%Khondoker%NULL%1,    Pippa%Belderson%NULL%1,    Anne%Marie Minihane%NULL%1,    Jack%Dainty%NULL%1,    Sarah%Hanson%NULL%1,    Richard%Holland%NULL%1,    Tracey%Brown%NULL%1,    Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,    Andrea D.%Smith%NULL%1,    Feifei%Bu%NULL%1,    Andrew%Steptoe%NULL%1,    Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,    Chihiro%Munekawa%NULL%1,    Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,    Takuro%Okamura%NULL%2,    Takuro%Okamura%NULL%0,    Fuyuko%Takahashi%NULL%1,    Rena%Kawano%NULL%1,    Hanako%Nakajima%NULL%1,    Saori%Majima%NULL%1,    Takafumi%Senmaru%NULL%1,    Naoko%Nakanishi%NULL%1,    Emi%Ushigome%NULL%1,    Masahide%Hamaguchi%NULL%1,    Masahiro%Yamazaki%NULL%1,    Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,    Satomi%Kobayashi%NULL%1,    Mai%Yamaguchi%NULL%1,    Ryohei%Sakata%NULL%1,    Yuki%Sasaki%NULL%1,    Chiaki%Murayama%NULL%1,    Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,    Luca%Pecoraro%NULL%1,    Alessandro%Ferruzzi%NULL%1,    Moonseong%Heo%NULL%1,    Myles%Faith%NULL%1,    Thomas%Zoller%NULL%2,    Thomas%Zoller%NULL%0,    Franco%Antoniazzi%NULL%1,    Giorgio%Piacentini%NULL%1,    S. Nicole%Fearnbach%NULL%1,    Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,    Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,   Cignarelli%A.%coreGivesNoEmail%1,   Di%Molfetta S.%coreGivesNoEmail%1,   Giordano%F.%coreGivesNoEmail%1,   Giorgino%F.%coreGivesNoEmail%1,   Guarini%F.%coreGivesNoEmail%1,   Laviola%L.%coreGivesNoEmail%1,   Leonardini%A.%coreGivesNoEmail%1,   Natalicchio%A.%coreGivesNoEmail%1,   Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,    Valentina%Ponzo%NULL%1,    Rosalba%Rosato%NULL%1,    Elena%Scumaci%NULL%1,    Ilaria%Goitre%NULL%1,    Andrea%Benso%NULL%1,    Sara%Belcastro%NULL%1,    Chiara%Crespi%NULL%1,    Franco%De Michieli%NULL%1,    Ezio%Ghigo%NULL%1,    Fabio%Broglio%NULL%1,    Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -904,6 +958,9 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -919,7 +976,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -929,6 +986,9 @@
       </c>
       <c r="H2" t="s">
         <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -945,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -955,6 +1015,9 @@
       </c>
       <c r="H3" t="s">
         <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -971,7 +1034,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -981,6 +1044,9 @@
       </c>
       <c r="H4" t="s">
         <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -997,7 +1063,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1007,6 +1073,9 @@
       </c>
       <c r="H5" t="s">
         <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1092,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1033,6 +1102,9 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -1049,16 +1121,19 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -1075,7 +1150,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1085,6 +1160,9 @@
       </c>
       <c r="H8" t="s">
         <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1101,7 +1179,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1111,6 +1189,9 @@
       </c>
       <c r="H9" t="s">
         <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1208,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1137,6 +1218,9 @@
       </c>
       <c r="H10" t="s">
         <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -1153,7 +1237,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1163,6 +1247,9 @@
       </c>
       <c r="H11" t="s">
         <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1179,7 +1266,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1189,6 +1276,9 @@
       </c>
       <c r="H12" t="s">
         <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1205,16 +1295,19 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1231,7 +1324,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
@@ -1241,6 +1334,9 @@
       </c>
       <c r="H14" t="s">
         <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="170">
   <si>
     <t>Doi</t>
   </si>
@@ -590,6 +590,123 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,    Valentina%Ponzo%NULL%1,    Rosalba%Rosato%NULL%1,    Elena%Scumaci%NULL%1,    Ilaria%Goitre%NULL%1,    Andrea%Benso%NULL%1,    Sara%Belcastro%NULL%1,    Chiara%Crespi%NULL%1,    Franco%De Michieli%NULL%1,    Ezio%Ghigo%NULL%1,    Fabio%Broglio%NULL%1,    Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,     Silvia%Brazzo%NULL%1,     Rachele%De Giuseppe%NULL%1,     Ginevra%Biino%NULL%2,     Ginevra%Biino%NULL%0,     Ilaria%Vietti%NULL%1,     Cristina%Pallavicini%NULL%1,     Hellas%Cena%NULL%1,     Emma%Ruiz Moreno%NULL%3,     Emma%Ruiz Moreno%NULL%0,     Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,     Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,     Sandro%Sperandei%NULL%1,     Louise%Freebairn%NULL%1,     Elizabeth%Conroy%NULL%1,     Hir%Jani%NULL%1,     Sandra%Marjanovic%NULL%1,     Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,     Timothy%Olds%NULL%2,     Timothy%Olds%NULL%0,     Ty%Ferguson%NULL%1,     François%Fraysse%NULL%2,     François%Fraysse%NULL%0,     Dorothea%Dumuid%NULL%1,     Adrian%Esterman%NULL%1,     Gilly A.%Hendrie%NULL%1,     Wendy J.%Brown%NULL%1,     Rajini%Lagiseti%NULL%1,     Carol A.%Maher%NULL%1,     Stephanie%Prince Ware%NULL%2,     Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,     Ana-Belén%Fraile-Bermúdez%NULL%2,     Ana-Belén%Fraile-Bermúdez%NULL%0,     Batirtze San%Martín-Gamboa%NULL%2,     Batirtze San%Martín-Gamboa%NULL%0,     Silvia%Cepeda-Miguel%NULL%1,     Borja%Doncel-García%NULL%2,     Borja%Doncel-García%NULL%0,     Ainhoa%Fernandez-Atutxa%NULL%2,     Ainhoa%Fernandez-Atutxa%NULL%0,     Amaia%Irazusta%NULL%1,     Idoia%Zarrazquin%NULL%2,     Idoia%Zarrazquin%NULL%0,     Simona%Bo%NULL%4,     Simona%Bo%NULL%0,     Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,    Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,    Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,    Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,    Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,     Emma%Ward%NULL%2,     Emma%Ward%NULL%0,     Mizanur%Khondoker%NULL%1,     Pippa%Belderson%NULL%1,     Anne%Marie Minihane%NULL%1,     Jack%Dainty%NULL%1,     Sarah%Hanson%NULL%1,     Richard%Holland%NULL%1,     Tracey%Brown%NULL%1,     Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,     Andrea D.%Smith%NULL%1,     Feifei%Bu%NULL%1,     Andrew%Steptoe%NULL%1,     Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,     Chihiro%Munekawa%NULL%1,     Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,     Takuro%Okamura%NULL%2,     Takuro%Okamura%NULL%0,     Fuyuko%Takahashi%NULL%1,     Rena%Kawano%NULL%1,     Hanako%Nakajima%NULL%1,     Saori%Majima%NULL%1,     Takafumi%Senmaru%NULL%1,     Naoko%Nakanishi%NULL%1,     Emi%Ushigome%NULL%1,     Masahide%Hamaguchi%NULL%1,     Masahiro%Yamazaki%NULL%1,     Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,     Satomi%Kobayashi%NULL%1,     Mai%Yamaguchi%NULL%1,     Ryohei%Sakata%NULL%1,     Yuki%Sasaki%NULL%1,     Chiaki%Murayama%NULL%1,     Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,     Luca%Pecoraro%NULL%1,     Alessandro%Ferruzzi%NULL%1,     Moonseong%Heo%NULL%1,     Myles%Faith%NULL%1,     Thomas%Zoller%NULL%2,     Thomas%Zoller%NULL%0,     Franco%Antoniazzi%NULL%1,     Giorgio%Piacentini%NULL%1,     S. Nicole%Fearnbach%NULL%1,     Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,     Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,    Cignarelli%A.%coreGivesNoEmail%1,    Di%Molfetta S.%coreGivesNoEmail%1,    Giordano%F.%coreGivesNoEmail%1,    Giorgino%F.%coreGivesNoEmail%1,    Guarini%F.%coreGivesNoEmail%1,    Laviola%L.%coreGivesNoEmail%1,    Leonardini%A.%coreGivesNoEmail%1,    Natalicchio%A.%coreGivesNoEmail%1,    Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,     Valentina%Ponzo%NULL%1,     Rosalba%Rosato%NULL%1,     Elena%Scumaci%NULL%1,     Ilaria%Goitre%NULL%1,     Andrea%Benso%NULL%1,     Sara%Belcastro%NULL%1,     Chiara%Crespi%NULL%1,     Franco%De Michieli%NULL%1,     Ezio%Ghigo%NULL%1,     Fabio%Broglio%NULL%1,     Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,      Silvia%Brazzo%NULL%1,      Rachele%De Giuseppe%NULL%1,      Ginevra%Biino%NULL%2,      Ginevra%Biino%NULL%0,      Ilaria%Vietti%NULL%1,      Cristina%Pallavicini%NULL%1,      Hellas%Cena%NULL%1,      Emma%Ruiz Moreno%NULL%3,      Emma%Ruiz Moreno%NULL%0,      Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,      Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,      Sandro%Sperandei%NULL%1,      Louise%Freebairn%NULL%1,      Elizabeth%Conroy%NULL%1,      Hir%Jani%NULL%1,      Sandra%Marjanovic%NULL%1,      Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,      Timothy%Olds%NULL%2,      Timothy%Olds%NULL%0,      Ty%Ferguson%NULL%1,      François%Fraysse%NULL%2,      François%Fraysse%NULL%0,      Dorothea%Dumuid%NULL%1,      Adrian%Esterman%NULL%1,      Gilly A.%Hendrie%NULL%1,      Wendy J.%Brown%NULL%1,      Rajini%Lagiseti%NULL%1,      Carol A.%Maher%NULL%1,      Stephanie%Prince Ware%NULL%2,      Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,      Ana-Belén%Fraile-Bermúdez%NULL%2,      Ana-Belén%Fraile-Bermúdez%NULL%0,      Batirtze San%Martín-Gamboa%NULL%2,      Batirtze San%Martín-Gamboa%NULL%0,      Silvia%Cepeda-Miguel%NULL%1,      Borja%Doncel-García%NULL%2,      Borja%Doncel-García%NULL%0,      Ainhoa%Fernandez-Atutxa%NULL%2,      Ainhoa%Fernandez-Atutxa%NULL%0,      Amaia%Irazusta%NULL%1,      Idoia%Zarrazquin%NULL%2,      Idoia%Zarrazquin%NULL%0,      Simona%Bo%NULL%4,      Simona%Bo%NULL%0,      Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,     Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,     Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,     Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,     Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,      Emma%Ward%NULL%2,      Emma%Ward%NULL%0,      Mizanur%Khondoker%NULL%1,      Pippa%Belderson%NULL%1,      Anne%Marie Minihane%NULL%1,      Jack%Dainty%NULL%1,      Sarah%Hanson%NULL%1,      Richard%Holland%NULL%1,      Tracey%Brown%NULL%1,      Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,      Andrea D.%Smith%NULL%1,      Feifei%Bu%NULL%1,      Andrew%Steptoe%NULL%1,      Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,      Chihiro%Munekawa%NULL%1,      Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,      Takuro%Okamura%NULL%2,      Takuro%Okamura%NULL%0,      Fuyuko%Takahashi%NULL%1,      Rena%Kawano%NULL%1,      Hanako%Nakajima%NULL%1,      Saori%Majima%NULL%1,      Takafumi%Senmaru%NULL%1,      Naoko%Nakanishi%NULL%1,      Emi%Ushigome%NULL%1,      Masahide%Hamaguchi%NULL%1,      Masahiro%Yamazaki%NULL%1,      Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,      Satomi%Kobayashi%NULL%1,      Mai%Yamaguchi%NULL%1,      Ryohei%Sakata%NULL%1,      Yuki%Sasaki%NULL%1,      Chiaki%Murayama%NULL%1,      Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,      Luca%Pecoraro%NULL%1,      Alessandro%Ferruzzi%NULL%1,      Moonseong%Heo%NULL%1,      Myles%Faith%NULL%1,      Thomas%Zoller%NULL%2,      Thomas%Zoller%NULL%0,      Franco%Antoniazzi%NULL%1,      Giorgio%Piacentini%NULL%1,      S. Nicole%Fearnbach%NULL%1,      Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,      Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,     Cignarelli%A.%coreGivesNoEmail%1,     Di%Molfetta S.%coreGivesNoEmail%1,     Giordano%F.%coreGivesNoEmail%1,     Giorgino%F.%coreGivesNoEmail%1,     Guarini%F.%coreGivesNoEmail%1,     Laviola%L.%coreGivesNoEmail%1,     Leonardini%A.%coreGivesNoEmail%1,     Natalicchio%A.%coreGivesNoEmail%1,     Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,      Valentina%Ponzo%NULL%1,      Rosalba%Rosato%NULL%1,      Elena%Scumaci%NULL%1,      Ilaria%Goitre%NULL%1,      Andrea%Benso%NULL%1,      Sara%Belcastro%NULL%1,      Chiara%Crespi%NULL%1,      Franco%De Michieli%NULL%1,      Ezio%Ghigo%NULL%1,      Fabio%Broglio%NULL%1,      Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,       Silvia%Brazzo%NULL%1,       Rachele%De Giuseppe%NULL%1,       Ginevra%Biino%NULL%2,       Ginevra%Biino%NULL%0,       Ilaria%Vietti%NULL%1,       Cristina%Pallavicini%NULL%1,       Hellas%Cena%NULL%1,       Emma%Ruiz Moreno%NULL%3,       Emma%Ruiz Moreno%NULL%0,       Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,       Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,       Sandro%Sperandei%NULL%1,       Louise%Freebairn%NULL%1,       Elizabeth%Conroy%NULL%1,       Hir%Jani%NULL%1,       Sandra%Marjanovic%NULL%1,       Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,       Timothy%Olds%NULL%2,       Timothy%Olds%NULL%0,       Ty%Ferguson%NULL%1,       François%Fraysse%NULL%2,       François%Fraysse%NULL%0,       Dorothea%Dumuid%NULL%1,       Adrian%Esterman%NULL%1,       Gilly A.%Hendrie%NULL%1,       Wendy J.%Brown%NULL%1,       Rajini%Lagiseti%NULL%1,       Carol A.%Maher%NULL%1,       Stephanie%Prince Ware%NULL%2,       Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,       Ana-Belén%Fraile-Bermúdez%NULL%2,       Ana-Belén%Fraile-Bermúdez%NULL%0,       Batirtze San%Martín-Gamboa%NULL%2,       Batirtze San%Martín-Gamboa%NULL%0,       Silvia%Cepeda-Miguel%NULL%1,       Borja%Doncel-García%NULL%2,       Borja%Doncel-García%NULL%0,       Ainhoa%Fernandez-Atutxa%NULL%2,       Ainhoa%Fernandez-Atutxa%NULL%0,       Amaia%Irazusta%NULL%1,       Idoia%Zarrazquin%NULL%2,       Idoia%Zarrazquin%NULL%0,       Simona%Bo%NULL%4,       Simona%Bo%NULL%0,       Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,      Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,      Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,      Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,      Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,       Emma%Ward%NULL%2,       Emma%Ward%NULL%0,       Mizanur%Khondoker%NULL%1,       Pippa%Belderson%NULL%1,       Anne%Marie Minihane%NULL%1,       Jack%Dainty%NULL%1,       Sarah%Hanson%NULL%1,       Richard%Holland%NULL%1,       Tracey%Brown%NULL%1,       Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,       Andrea D.%Smith%NULL%1,       Feifei%Bu%NULL%1,       Andrew%Steptoe%NULL%1,       Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,       Chihiro%Munekawa%NULL%1,       Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,       Takuro%Okamura%NULL%2,       Takuro%Okamura%NULL%0,       Fuyuko%Takahashi%NULL%1,       Rena%Kawano%NULL%1,       Hanako%Nakajima%NULL%1,       Saori%Majima%NULL%1,       Takafumi%Senmaru%NULL%1,       Naoko%Nakanishi%NULL%1,       Emi%Ushigome%NULL%1,       Masahide%Hamaguchi%NULL%1,       Masahiro%Yamazaki%NULL%1,       Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,       Satomi%Kobayashi%NULL%1,       Mai%Yamaguchi%NULL%1,       Ryohei%Sakata%NULL%1,       Yuki%Sasaki%NULL%1,       Chiaki%Murayama%NULL%1,       Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,       Luca%Pecoraro%NULL%1,       Alessandro%Ferruzzi%NULL%1,       Moonseong%Heo%NULL%1,       Myles%Faith%NULL%1,       Thomas%Zoller%NULL%2,       Thomas%Zoller%NULL%0,       Franco%Antoniazzi%NULL%1,       Giorgio%Piacentini%NULL%1,       S. Nicole%Fearnbach%NULL%1,       Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,       Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,      Cignarelli%A.%coreGivesNoEmail%1,      Di%Molfetta S.%coreGivesNoEmail%1,      Giordano%F.%coreGivesNoEmail%1,      Giorgino%F.%coreGivesNoEmail%1,      Guarini%F.%coreGivesNoEmail%1,      Laviola%L.%coreGivesNoEmail%1,      Leonardini%A.%coreGivesNoEmail%1,      Natalicchio%A.%coreGivesNoEmail%1,      Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,       Valentina%Ponzo%NULL%1,       Rosalba%Rosato%NULL%1,       Elena%Scumaci%NULL%1,       Ilaria%Goitre%NULL%1,       Andrea%Benso%NULL%1,       Sara%Belcastro%NULL%1,       Chiara%Crespi%NULL%1,       Franco%De Michieli%NULL%1,       Ezio%Ghigo%NULL%1,       Fabio%Broglio%NULL%1,       Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1005,7 +1122,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1034,7 +1151,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1063,7 +1180,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1092,7 +1209,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1121,13 +1238,13 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
         <v>52</v>
@@ -1150,7 +1267,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1179,7 +1296,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1208,7 +1325,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1237,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1266,7 +1383,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1295,13 +1412,13 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
         <v>52</v>
@@ -1324,7 +1441,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="196">
   <si>
     <t>Doi</t>
   </si>
@@ -707,6 +707,84 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,       Valentina%Ponzo%NULL%1,       Rosalba%Rosato%NULL%1,       Elena%Scumaci%NULL%1,       Ilaria%Goitre%NULL%1,       Andrea%Benso%NULL%1,       Sara%Belcastro%NULL%1,       Chiara%Crespi%NULL%1,       Franco%De Michieli%NULL%1,       Ezio%Ghigo%NULL%1,       Fabio%Broglio%NULL%1,       Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,        Silvia%Brazzo%NULL%1,        Rachele%De Giuseppe%NULL%1,        Ginevra%Biino%NULL%2,        Ginevra%Biino%NULL%0,        Ilaria%Vietti%NULL%1,        Cristina%Pallavicini%NULL%1,        Hellas%Cena%NULL%1,        Emma%Ruiz Moreno%NULL%3,        Emma%Ruiz Moreno%NULL%0,        Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,        Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,        Sandro%Sperandei%NULL%1,        Louise%Freebairn%NULL%1,        Elizabeth%Conroy%NULL%1,        Hir%Jani%NULL%1,        Sandra%Marjanovic%NULL%1,        Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,        Timothy%Olds%NULL%2,        Timothy%Olds%NULL%0,        Ty%Ferguson%NULL%1,        François%Fraysse%NULL%2,        François%Fraysse%NULL%0,        Dorothea%Dumuid%NULL%1,        Adrian%Esterman%NULL%1,        Gilly A.%Hendrie%NULL%1,        Wendy J.%Brown%NULL%1,        Rajini%Lagiseti%NULL%1,        Carol A.%Maher%NULL%1,        Stephanie%Prince Ware%NULL%2,        Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,        Ana-Belén%Fraile-Bermúdez%NULL%2,        Ana-Belén%Fraile-Bermúdez%NULL%0,        Batirtze San%Martín-Gamboa%NULL%2,        Batirtze San%Martín-Gamboa%NULL%0,        Silvia%Cepeda-Miguel%NULL%1,        Borja%Doncel-García%NULL%2,        Borja%Doncel-García%NULL%0,        Ainhoa%Fernandez-Atutxa%NULL%2,        Ainhoa%Fernandez-Atutxa%NULL%0,        Amaia%Irazusta%NULL%1,        Idoia%Zarrazquin%NULL%2,        Idoia%Zarrazquin%NULL%0,        Simona%Bo%NULL%4,        Simona%Bo%NULL%0,        Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,       Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,       Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,       Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,       Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,        Emma%Ward%NULL%2,        Emma%Ward%NULL%0,        Mizanur%Khondoker%NULL%1,        Pippa%Belderson%NULL%1,        Anne%Marie Minihane%NULL%1,        Jack%Dainty%NULL%1,        Sarah%Hanson%NULL%1,        Richard%Holland%NULL%1,        Tracey%Brown%NULL%1,        Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,        Andrea D.%Smith%NULL%1,        Feifei%Bu%NULL%1,        Andrew%Steptoe%NULL%1,        Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,        Chihiro%Munekawa%NULL%1,        Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,        Takuro%Okamura%NULL%2,        Takuro%Okamura%NULL%0,        Fuyuko%Takahashi%NULL%1,        Rena%Kawano%NULL%1,        Hanako%Nakajima%NULL%1,        Saori%Majima%NULL%1,        Takafumi%Senmaru%NULL%1,        Naoko%Nakanishi%NULL%1,        Emi%Ushigome%NULL%1,        Masahide%Hamaguchi%NULL%1,        Masahiro%Yamazaki%NULL%1,        Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,        Satomi%Kobayashi%NULL%1,        Mai%Yamaguchi%NULL%1,        Ryohei%Sakata%NULL%1,        Yuki%Sasaki%NULL%1,        Chiaki%Murayama%NULL%1,        Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,        Luca%Pecoraro%NULL%1,        Alessandro%Ferruzzi%NULL%1,        Moonseong%Heo%NULL%1,        Myles%Faith%NULL%1,        Thomas%Zoller%NULL%2,        Thomas%Zoller%NULL%0,        Franco%Antoniazzi%NULL%1,        Giorgio%Piacentini%NULL%1,        S. Nicole%Fearnbach%NULL%1,        Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,        Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,       Cignarelli%A.%coreGivesNoEmail%1,       Di%Molfetta S.%coreGivesNoEmail%1,       Giordano%F.%coreGivesNoEmail%1,       Giorgino%F.%coreGivesNoEmail%1,       Guarini%F.%coreGivesNoEmail%1,       Laviola%L.%coreGivesNoEmail%1,       Leonardini%A.%coreGivesNoEmail%1,       Natalicchio%A.%coreGivesNoEmail%1,       Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,        Valentina%Ponzo%NULL%1,        Rosalba%Rosato%NULL%1,        Elena%Scumaci%NULL%1,        Ilaria%Goitre%NULL%1,        Andrea%Benso%NULL%1,        Sara%Belcastro%NULL%1,        Chiara%Crespi%NULL%1,        Franco%De Michieli%NULL%1,        Ezio%Ghigo%NULL%1,        Fabio%Broglio%NULL%1,        Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,         Silvia%Brazzo%NULL%1,         Rachele%De Giuseppe%NULL%1,         Ginevra%Biino%NULL%2,         Ginevra%Biino%NULL%0,         Ilaria%Vietti%NULL%1,         Cristina%Pallavicini%NULL%1,         Hellas%Cena%NULL%1,         Emma%Ruiz Moreno%NULL%3,         Emma%Ruiz Moreno%NULL%0,         Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,         Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,         Sandro%Sperandei%NULL%1,         Louise%Freebairn%NULL%1,         Elizabeth%Conroy%NULL%1,         Hir%Jani%NULL%1,         Sandra%Marjanovic%NULL%1,         Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,         Timothy%Olds%NULL%2,         Timothy%Olds%NULL%0,         Ty%Ferguson%NULL%1,         François%Fraysse%NULL%2,         François%Fraysse%NULL%0,         Dorothea%Dumuid%NULL%1,         Adrian%Esterman%NULL%1,         Gilly A.%Hendrie%NULL%1,         Wendy J.%Brown%NULL%1,         Rajini%Lagiseti%NULL%1,         Carol A.%Maher%NULL%1,         Stephanie%Prince Ware%NULL%2,         Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,         Ana-Belén%Fraile-Bermúdez%NULL%2,         Ana-Belén%Fraile-Bermúdez%NULL%0,         Batirtze San%Martín-Gamboa%NULL%2,         Batirtze San%Martín-Gamboa%NULL%0,         Silvia%Cepeda-Miguel%NULL%1,         Borja%Doncel-García%NULL%2,         Borja%Doncel-García%NULL%0,         Ainhoa%Fernandez-Atutxa%NULL%2,         Ainhoa%Fernandez-Atutxa%NULL%0,         Amaia%Irazusta%NULL%1,         Idoia%Zarrazquin%NULL%2,         Idoia%Zarrazquin%NULL%0,         Simona%Bo%NULL%4,         Simona%Bo%NULL%0,         Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,        Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,        Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,        Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,        Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,         Emma%Ward%NULL%2,         Emma%Ward%NULL%0,         Mizanur%Khondoker%NULL%1,         Pippa%Belderson%NULL%1,         Anne%Marie Minihane%NULL%1,         Jack%Dainty%NULL%1,         Sarah%Hanson%NULL%1,         Richard%Holland%NULL%1,         Tracey%Brown%NULL%1,         Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,         Andrea D.%Smith%NULL%1,         Feifei%Bu%NULL%1,         Andrew%Steptoe%NULL%1,         Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,         Chihiro%Munekawa%NULL%1,         Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,         Takuro%Okamura%NULL%2,         Takuro%Okamura%NULL%0,         Fuyuko%Takahashi%NULL%1,         Rena%Kawano%NULL%1,         Hanako%Nakajima%NULL%1,         Saori%Majima%NULL%1,         Takafumi%Senmaru%NULL%1,         Naoko%Nakanishi%NULL%1,         Emi%Ushigome%NULL%1,         Masahide%Hamaguchi%NULL%1,         Masahiro%Yamazaki%NULL%1,         Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,         Satomi%Kobayashi%NULL%1,         Mai%Yamaguchi%NULL%1,         Ryohei%Sakata%NULL%1,         Yuki%Sasaki%NULL%1,         Chiaki%Murayama%NULL%1,         Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,         Luca%Pecoraro%NULL%1,         Alessandro%Ferruzzi%NULL%1,         Moonseong%Heo%NULL%1,         Myles%Faith%NULL%1,         Thomas%Zoller%NULL%2,         Thomas%Zoller%NULL%0,         Franco%Antoniazzi%NULL%1,         Giorgio%Piacentini%NULL%1,         S. Nicole%Fearnbach%NULL%1,         Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,         Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,        Cignarelli%A.%coreGivesNoEmail%1,        Di%Molfetta S.%coreGivesNoEmail%1,        Giordano%F.%coreGivesNoEmail%1,        Giorgino%F.%coreGivesNoEmail%1,        Guarini%F.%coreGivesNoEmail%1,        Laviola%L.%coreGivesNoEmail%1,        Leonardini%A.%coreGivesNoEmail%1,        Natalicchio%A.%coreGivesNoEmail%1,        Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,         Valentina%Ponzo%NULL%1,         Rosalba%Rosato%NULL%1,         Elena%Scumaci%NULL%1,         Ilaria%Goitre%NULL%1,         Andrea%Benso%NULL%1,         Sara%Belcastro%NULL%1,         Chiara%Crespi%NULL%1,         Franco%De Michieli%NULL%1,         Ezio%Ghigo%NULL%1,         Fabio%Broglio%NULL%1,         Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1171,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1122,7 +1200,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1151,7 +1229,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1180,7 +1258,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1209,7 +1287,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1238,7 +1316,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1267,7 +1345,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1296,7 +1374,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1325,7 +1403,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1354,7 +1432,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1383,7 +1461,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1412,7 +1490,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1441,7 +1519,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="222">
   <si>
     <t>Doi</t>
   </si>
@@ -785,6 +785,84 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,         Valentina%Ponzo%NULL%1,         Rosalba%Rosato%NULL%1,         Elena%Scumaci%NULL%1,         Ilaria%Goitre%NULL%1,         Andrea%Benso%NULL%1,         Sara%Belcastro%NULL%1,         Chiara%Crespi%NULL%1,         Franco%De Michieli%NULL%1,         Ezio%Ghigo%NULL%1,         Fabio%Broglio%NULL%1,         Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,          Silvia%Brazzo%NULL%1,          Rachele%De Giuseppe%NULL%1,          Ginevra%Biino%NULL%2,          Ginevra%Biino%NULL%0,          Ilaria%Vietti%NULL%1,          Cristina%Pallavicini%NULL%1,          Hellas%Cena%NULL%1,          Emma%Ruiz Moreno%NULL%3,          Emma%Ruiz Moreno%NULL%0,          Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,          Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,          Sandro%Sperandei%NULL%1,          Louise%Freebairn%NULL%1,          Elizabeth%Conroy%NULL%1,          Hir%Jani%NULL%1,          Sandra%Marjanovic%NULL%1,          Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,          Timothy%Olds%NULL%2,          Timothy%Olds%NULL%0,          Ty%Ferguson%NULL%1,          François%Fraysse%NULL%2,          François%Fraysse%NULL%0,          Dorothea%Dumuid%NULL%1,          Adrian%Esterman%NULL%1,          Gilly A.%Hendrie%NULL%1,          Wendy J.%Brown%NULL%1,          Rajini%Lagiseti%NULL%1,          Carol A.%Maher%NULL%1,          Stephanie%Prince Ware%NULL%2,          Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,          Ana-Belén%Fraile-Bermúdez%NULL%2,          Ana-Belén%Fraile-Bermúdez%NULL%0,          Batirtze San%Martín-Gamboa%NULL%2,          Batirtze San%Martín-Gamboa%NULL%0,          Silvia%Cepeda-Miguel%NULL%1,          Borja%Doncel-García%NULL%2,          Borja%Doncel-García%NULL%0,          Ainhoa%Fernandez-Atutxa%NULL%2,          Ainhoa%Fernandez-Atutxa%NULL%0,          Amaia%Irazusta%NULL%1,          Idoia%Zarrazquin%NULL%2,          Idoia%Zarrazquin%NULL%0,          Simona%Bo%NULL%4,          Simona%Bo%NULL%0,          Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,         Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,         Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,         Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,         Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,          Emma%Ward%NULL%2,          Emma%Ward%NULL%0,          Mizanur%Khondoker%NULL%1,          Pippa%Belderson%NULL%1,          Anne%Marie Minihane%NULL%1,          Jack%Dainty%NULL%1,          Sarah%Hanson%NULL%1,          Richard%Holland%NULL%1,          Tracey%Brown%NULL%1,          Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,          Andrea D.%Smith%NULL%1,          Feifei%Bu%NULL%1,          Andrew%Steptoe%NULL%1,          Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,          Chihiro%Munekawa%NULL%1,          Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,          Takuro%Okamura%NULL%2,          Takuro%Okamura%NULL%0,          Fuyuko%Takahashi%NULL%1,          Rena%Kawano%NULL%1,          Hanako%Nakajima%NULL%1,          Saori%Majima%NULL%1,          Takafumi%Senmaru%NULL%1,          Naoko%Nakanishi%NULL%1,          Emi%Ushigome%NULL%1,          Masahide%Hamaguchi%NULL%1,          Masahiro%Yamazaki%NULL%1,          Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,          Satomi%Kobayashi%NULL%1,          Mai%Yamaguchi%NULL%1,          Ryohei%Sakata%NULL%1,          Yuki%Sasaki%NULL%1,          Chiaki%Murayama%NULL%1,          Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,          Luca%Pecoraro%NULL%1,          Alessandro%Ferruzzi%NULL%1,          Moonseong%Heo%NULL%1,          Myles%Faith%NULL%1,          Thomas%Zoller%NULL%2,          Thomas%Zoller%NULL%0,          Franco%Antoniazzi%NULL%1,          Giorgio%Piacentini%NULL%1,          S. Nicole%Fearnbach%NULL%1,          Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,          Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,         Cignarelli%A.%coreGivesNoEmail%1,         Di%Molfetta S.%coreGivesNoEmail%1,         Giordano%F.%coreGivesNoEmail%1,         Giorgino%F.%coreGivesNoEmail%1,         Guarini%F.%coreGivesNoEmail%1,         Laviola%L.%coreGivesNoEmail%1,         Leonardini%A.%coreGivesNoEmail%1,         Natalicchio%A.%coreGivesNoEmail%1,         Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,          Valentina%Ponzo%NULL%1,          Rosalba%Rosato%NULL%1,          Elena%Scumaci%NULL%1,          Ilaria%Goitre%NULL%1,          Andrea%Benso%NULL%1,          Sara%Belcastro%NULL%1,          Chiara%Crespi%NULL%1,          Franco%De Michieli%NULL%1,          Ezio%Ghigo%NULL%1,          Fabio%Broglio%NULL%1,          Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,           Silvia%Brazzo%NULL%1,           Rachele%De Giuseppe%NULL%1,           Ginevra%Biino%NULL%2,           Ginevra%Biino%NULL%0,           Ilaria%Vietti%NULL%1,           Cristina%Pallavicini%NULL%1,           Hellas%Cena%NULL%1,           Emma%Ruiz Moreno%NULL%3,           Emma%Ruiz Moreno%NULL%0,           Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,           Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,           Sandro%Sperandei%NULL%1,           Louise%Freebairn%NULL%1,           Elizabeth%Conroy%NULL%1,           Hir%Jani%NULL%1,           Sandra%Marjanovic%NULL%1,           Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,           Timothy%Olds%NULL%2,           Timothy%Olds%NULL%0,           Ty%Ferguson%NULL%1,           François%Fraysse%NULL%2,           François%Fraysse%NULL%0,           Dorothea%Dumuid%NULL%1,           Adrian%Esterman%NULL%1,           Gilly A.%Hendrie%NULL%1,           Wendy J.%Brown%NULL%1,           Rajini%Lagiseti%NULL%1,           Carol A.%Maher%NULL%1,           Stephanie%Prince Ware%NULL%2,           Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,           Ana-Belén%Fraile-Bermúdez%NULL%2,           Ana-Belén%Fraile-Bermúdez%NULL%0,           Batirtze San%Martín-Gamboa%NULL%2,           Batirtze San%Martín-Gamboa%NULL%0,           Silvia%Cepeda-Miguel%NULL%1,           Borja%Doncel-García%NULL%2,           Borja%Doncel-García%NULL%0,           Ainhoa%Fernandez-Atutxa%NULL%2,           Ainhoa%Fernandez-Atutxa%NULL%0,           Amaia%Irazusta%NULL%1,           Idoia%Zarrazquin%NULL%2,           Idoia%Zarrazquin%NULL%0,           Simona%Bo%NULL%4,           Simona%Bo%NULL%0,           Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,          Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,          Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,          Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,          Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,           Emma%Ward%NULL%2,           Emma%Ward%NULL%0,           Mizanur%Khondoker%NULL%1,           Pippa%Belderson%NULL%1,           Anne%Marie Minihane%NULL%1,           Jack%Dainty%NULL%1,           Sarah%Hanson%NULL%1,           Richard%Holland%NULL%1,           Tracey%Brown%NULL%1,           Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,           Andrea D.%Smith%NULL%1,           Feifei%Bu%NULL%1,           Andrew%Steptoe%NULL%1,           Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,           Chihiro%Munekawa%NULL%1,           Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,           Takuro%Okamura%NULL%2,           Takuro%Okamura%NULL%0,           Fuyuko%Takahashi%NULL%1,           Rena%Kawano%NULL%1,           Hanako%Nakajima%NULL%1,           Saori%Majima%NULL%1,           Takafumi%Senmaru%NULL%1,           Naoko%Nakanishi%NULL%1,           Emi%Ushigome%NULL%1,           Masahide%Hamaguchi%NULL%1,           Masahiro%Yamazaki%NULL%1,           Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,           Satomi%Kobayashi%NULL%1,           Mai%Yamaguchi%NULL%1,           Ryohei%Sakata%NULL%1,           Yuki%Sasaki%NULL%1,           Chiaki%Murayama%NULL%1,           Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,           Luca%Pecoraro%NULL%1,           Alessandro%Ferruzzi%NULL%1,           Moonseong%Heo%NULL%1,           Myles%Faith%NULL%1,           Thomas%Zoller%NULL%2,           Thomas%Zoller%NULL%0,           Franco%Antoniazzi%NULL%1,           Giorgio%Piacentini%NULL%1,           S. Nicole%Fearnbach%NULL%1,           Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,           Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,          Cignarelli%A.%coreGivesNoEmail%1,          Di%Molfetta S.%coreGivesNoEmail%1,          Giordano%F.%coreGivesNoEmail%1,          Giorgino%F.%coreGivesNoEmail%1,          Guarini%F.%coreGivesNoEmail%1,          Laviola%L.%coreGivesNoEmail%1,          Leonardini%A.%coreGivesNoEmail%1,          Natalicchio%A.%coreGivesNoEmail%1,          Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,           Valentina%Ponzo%NULL%1,           Rosalba%Rosato%NULL%1,           Elena%Scumaci%NULL%1,           Ilaria%Goitre%NULL%1,           Andrea%Benso%NULL%1,           Sara%Belcastro%NULL%1,           Chiara%Crespi%NULL%1,           Franco%De Michieli%NULL%1,           Ezio%Ghigo%NULL%1,           Fabio%Broglio%NULL%1,           Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1249,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1200,7 +1278,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1229,7 +1307,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1258,7 +1336,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1287,7 +1365,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1316,7 +1394,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1345,7 +1423,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1374,7 +1452,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1403,7 +1481,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1432,7 +1510,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1461,7 +1539,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1490,7 +1568,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1519,7 +1597,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="249">
   <si>
     <t>Doi</t>
   </si>
@@ -863,6 +863,103 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,           Valentina%Ponzo%NULL%1,           Rosalba%Rosato%NULL%1,           Elena%Scumaci%NULL%1,           Ilaria%Goitre%NULL%1,           Andrea%Benso%NULL%1,           Sara%Belcastro%NULL%1,           Chiara%Crespi%NULL%1,           Franco%De Michieli%NULL%1,           Ezio%Ghigo%NULL%1,           Fabio%Broglio%NULL%1,           Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,            Silvia%Brazzo%NULL%1,            Rachele%De Giuseppe%NULL%1,            Ginevra%Biino%NULL%2,            Ginevra%Biino%NULL%0,            Ilaria%Vietti%NULL%1,            Cristina%Pallavicini%NULL%1,            Hellas%Cena%NULL%1,            Emma%Ruiz Moreno%NULL%3,            Emma%Ruiz Moreno%NULL%0,            Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,            Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,            Sandro%Sperandei%NULL%1,            Louise%Freebairn%NULL%1,            Elizabeth%Conroy%NULL%1,            Hir%Jani%NULL%1,            Sandra%Marjanovic%NULL%1,            Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,            Timothy%Olds%NULL%2,            Timothy%Olds%NULL%0,            Ty%Ferguson%NULL%1,            François%Fraysse%NULL%2,            François%Fraysse%NULL%0,            Dorothea%Dumuid%NULL%1,            Adrian%Esterman%NULL%1,            Gilly A.%Hendrie%NULL%1,            Wendy J.%Brown%NULL%1,            Rajini%Lagiseti%NULL%1,            Carol A.%Maher%NULL%1,            Stephanie%Prince Ware%NULL%2,            Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,            Ana-Belén%Fraile-Bermúdez%NULL%2,            Ana-Belén%Fraile-Bermúdez%NULL%0,            Batirtze San%Martín-Gamboa%NULL%2,            Batirtze San%Martín-Gamboa%NULL%0,            Silvia%Cepeda-Miguel%NULL%1,            Borja%Doncel-García%NULL%2,            Borja%Doncel-García%NULL%0,            Ainhoa%Fernandez-Atutxa%NULL%2,            Ainhoa%Fernandez-Atutxa%NULL%0,            Amaia%Irazusta%NULL%1,            Idoia%Zarrazquin%NULL%2,            Idoia%Zarrazquin%NULL%0,            Simona%Bo%NULL%4,            Simona%Bo%NULL%0,            Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,           Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,           Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,           Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,           Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,            Emma%Ward%NULL%2,            Emma%Ward%NULL%0,            Mizanur%Khondoker%NULL%1,            Pippa%Belderson%NULL%1,            Anne%Marie Minihane%NULL%1,            Jack%Dainty%NULL%1,            Sarah%Hanson%NULL%1,            Richard%Holland%NULL%1,            Tracey%Brown%NULL%1,            Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,            Andrea D.%Smith%NULL%1,            Feifei%Bu%NULL%1,            Andrew%Steptoe%NULL%1,            Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+To investigate the acute effects of coronavirus disease (COVID-19) on lifestyle and metabolic parameters in patients with type 1 diabetes (T1D).
+Methods
+This retrospective cohort study included 34 patients who were admitted to our hospital from April 16 to May 1, 2020. Data on stress levels, sleep duration, exercise, total diet, snacks, and prepared food intake were obtained from the questionnaires.
+ Changes in the values of hemoglobin A1c (HbA1c) and body weight from 3 months before the administration of the questionnaire to the time the study questionnaire was administered (pandemic year), and those from 15 months before to 12 months before the administration of the questionnaire (pre-pandemic year) were evaluated.
+Results
+Increased stress levels and decreased exercise volumes were observed in approximately 60% and 50% of participants during the COVID-19 pandemic, respectively.
+ Decreased sleep duration was associated with changes in the body weight for 3 months during pandemic year (r = − 0.40, p = 0.043).
+ Furthermore, compared with changes in HbA1c for 3 months during pre-pandemic year, changes in HbA1c during the pandemic year were worse (0.12% [0.33] % during pandemic year vs.
+ − 0.09 [0.39] % during pre-pandemic year, p = 0.027).
+Conclusions
+Many patients experienced stress and exercised less due to the COVID-19 pandemic.
+ Glycemic control in patients with T1D was worse than that in the previous year.
+ Since the pandemic is currently ongoing, more attention should be paid to stress and lifestyle factor management in patients with T1D.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s13340-021-00507-4.
+</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,            Chihiro%Munekawa%NULL%1,            Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,            Takuro%Okamura%NULL%2,            Takuro%Okamura%NULL%0,            Fuyuko%Takahashi%NULL%1,            Rena%Kawano%NULL%1,            Hanako%Nakajima%NULL%1,            Saori%Majima%NULL%1,            Takafumi%Senmaru%NULL%1,            Naoko%Nakanishi%NULL%1,            Emi%Ushigome%NULL%1,            Masahide%Hamaguchi%NULL%1,            Masahiro%Yamazaki%NULL%1,            Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,            Satomi%Kobayashi%NULL%1,            Mai%Yamaguchi%NULL%1,            Ryohei%Sakata%NULL%1,            Yuki%Sasaki%NULL%1,            Chiaki%Murayama%NULL%1,            Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,            Luca%Pecoraro%NULL%1,            Alessandro%Ferruzzi%NULL%1,            Moonseong%Heo%NULL%1,            Myles%Faith%NULL%1,            Thomas%Zoller%NULL%2,            Thomas%Zoller%NULL%0,            Franco%Antoniazzi%NULL%1,            Giorgio%Piacentini%NULL%1,            S. Nicole%Fearnbach%NULL%1,            Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,            Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,           Cignarelli%A.%coreGivesNoEmail%1,           Di%Molfetta S.%coreGivesNoEmail%1,           Giordano%F.%coreGivesNoEmail%1,           Giorgino%F.%coreGivesNoEmail%1,           Guarini%F.%coreGivesNoEmail%1,           Laviola%L.%coreGivesNoEmail%1,           Leonardini%A.%coreGivesNoEmail%1,           Natalicchio%A.%coreGivesNoEmail%1,           Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,            Valentina%Ponzo%NULL%1,            Rosalba%Rosato%NULL%1,            Elena%Scumaci%NULL%1,            Ilaria%Goitre%NULL%1,            Andrea%Benso%NULL%1,            Sara%Belcastro%NULL%1,            Chiara%Crespi%NULL%1,            Franco%De Michieli%NULL%1,            Ezio%Ghigo%NULL%1,            Fabio%Broglio%NULL%1,            Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,             Silvia%Brazzo%NULL%1,             Rachele%De Giuseppe%NULL%1,             Ginevra%Biino%NULL%2,             Ginevra%Biino%NULL%0,             Ilaria%Vietti%NULL%1,             Cristina%Pallavicini%NULL%1,             Hellas%Cena%NULL%1,             Emma%Ruiz Moreno%NULL%3,             Emma%Ruiz Moreno%NULL%0,             Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,             Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,             Sandro%Sperandei%NULL%1,             Louise%Freebairn%NULL%1,             Elizabeth%Conroy%NULL%1,             Hir%Jani%NULL%1,             Sandra%Marjanovic%NULL%1,             Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,             Timothy%Olds%NULL%2,             Timothy%Olds%NULL%0,             Ty%Ferguson%NULL%1,             François%Fraysse%NULL%2,             François%Fraysse%NULL%0,             Dorothea%Dumuid%NULL%1,             Adrian%Esterman%NULL%1,             Gilly A.%Hendrie%NULL%1,             Wendy J.%Brown%NULL%1,             Rajini%Lagiseti%NULL%1,             Carol A.%Maher%NULL%1,             Stephanie%Prince Ware%NULL%2,             Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,             Ana-Belén%Fraile-Bermúdez%NULL%2,             Ana-Belén%Fraile-Bermúdez%NULL%0,             Batirtze San%Martín-Gamboa%NULL%2,             Batirtze San%Martín-Gamboa%NULL%0,             Silvia%Cepeda-Miguel%NULL%1,             Borja%Doncel-García%NULL%2,             Borja%Doncel-García%NULL%0,             Ainhoa%Fernandez-Atutxa%NULL%2,             Ainhoa%Fernandez-Atutxa%NULL%0,             Amaia%Irazusta%NULL%1,             Idoia%Zarrazquin%NULL%2,             Idoia%Zarrazquin%NULL%0,             Simona%Bo%NULL%4,             Simona%Bo%NULL%0,             Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,            Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,            Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,            Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,            Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,             Emma%Ward%NULL%2,             Emma%Ward%NULL%0,             Mizanur%Khondoker%NULL%1,             Pippa%Belderson%NULL%1,             Anne%Marie Minihane%NULL%1,             Jack%Dainty%NULL%1,             Sarah%Hanson%NULL%1,             Richard%Holland%NULL%1,             Tracey%Brown%NULL%1,             Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,             Andrea D.%Smith%NULL%1,             Feifei%Bu%NULL%1,             Andrew%Steptoe%NULL%1,             Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,             Chihiro%Munekawa%NULL%1,             Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,             Takuro%Okamura%NULL%2,             Takuro%Okamura%NULL%0,             Fuyuko%Takahashi%NULL%1,             Rena%Kawano%NULL%1,             Hanako%Nakajima%NULL%1,             Saori%Majima%NULL%1,             Takafumi%Senmaru%NULL%1,             Naoko%Nakanishi%NULL%1,             Emi%Ushigome%NULL%1,             Masahide%Hamaguchi%NULL%1,             Masahiro%Yamazaki%NULL%1,             Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,             Satomi%Kobayashi%NULL%1,             Mai%Yamaguchi%NULL%1,             Ryohei%Sakata%NULL%1,             Yuki%Sasaki%NULL%1,             Chiaki%Murayama%NULL%1,             Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,             Luca%Pecoraro%NULL%1,             Alessandro%Ferruzzi%NULL%1,             Moonseong%Heo%NULL%1,             Myles%Faith%NULL%1,             Thomas%Zoller%NULL%2,             Thomas%Zoller%NULL%0,             Franco%Antoniazzi%NULL%1,             Giorgio%Piacentini%NULL%1,             S. Nicole%Fearnbach%NULL%1,             Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,             Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,            Cignarelli%A.%coreGivesNoEmail%1,            Di%Molfetta S.%coreGivesNoEmail%1,            Giordano%F.%coreGivesNoEmail%1,            Giorgino%F.%coreGivesNoEmail%1,            Guarini%F.%coreGivesNoEmail%1,            Laviola%L.%coreGivesNoEmail%1,            Leonardini%A.%coreGivesNoEmail%1,            Natalicchio%A.%coreGivesNoEmail%1,            Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,             Valentina%Ponzo%NULL%1,             Rosalba%Rosato%NULL%1,             Elena%Scumaci%NULL%1,             Ilaria%Goitre%NULL%1,             Andrea%Benso%NULL%1,             Sara%Belcastro%NULL%1,             Chiara%Crespi%NULL%1,             Franco%De Michieli%NULL%1,             Ezio%Ghigo%NULL%1,             Fabio%Broglio%NULL%1,             Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1346,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1278,7 +1375,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1307,7 +1404,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1336,7 +1433,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1365,7 +1462,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1394,7 +1491,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1423,7 +1520,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1452,7 +1549,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1478,10 +1575,10 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1510,7 +1607,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1539,7 +1636,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1568,7 +1665,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1597,7 +1694,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="262">
   <si>
     <t>Doi</t>
   </si>
@@ -960,6 +960,45 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,             Valentina%Ponzo%NULL%1,             Rosalba%Rosato%NULL%1,             Elena%Scumaci%NULL%1,             Ilaria%Goitre%NULL%1,             Andrea%Benso%NULL%1,             Sara%Belcastro%NULL%1,             Chiara%Crespi%NULL%1,             Franco%De Michieli%NULL%1,             Ezio%Ghigo%NULL%1,             Fabio%Broglio%NULL%1,             Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,              Silvia%Brazzo%NULL%1,              Rachele%De Giuseppe%NULL%1,              Ginevra%Biino%NULL%2,              Ginevra%Biino%NULL%0,              Ilaria%Vietti%NULL%1,              Cristina%Pallavicini%NULL%1,              Hellas%Cena%NULL%1,              Emma%Ruiz Moreno%NULL%3,              Emma%Ruiz Moreno%NULL%0,              Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,              Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,              Sandro%Sperandei%NULL%1,              Louise%Freebairn%NULL%1,              Elizabeth%Conroy%NULL%1,              Hir%Jani%NULL%1,              Sandra%Marjanovic%NULL%1,              Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,              Timothy%Olds%NULL%2,              Timothy%Olds%NULL%0,              Ty%Ferguson%NULL%1,              François%Fraysse%NULL%2,              François%Fraysse%NULL%0,              Dorothea%Dumuid%NULL%1,              Adrian%Esterman%NULL%1,              Gilly A.%Hendrie%NULL%1,              Wendy J.%Brown%NULL%1,              Rajini%Lagiseti%NULL%1,              Carol A.%Maher%NULL%1,              Stephanie%Prince Ware%NULL%2,              Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,              Ana-Belén%Fraile-Bermúdez%NULL%2,              Ana-Belén%Fraile-Bermúdez%NULL%0,              Batirtze San%Martín-Gamboa%NULL%2,              Batirtze San%Martín-Gamboa%NULL%0,              Silvia%Cepeda-Miguel%NULL%1,              Borja%Doncel-García%NULL%2,              Borja%Doncel-García%NULL%0,              Ainhoa%Fernandez-Atutxa%NULL%2,              Ainhoa%Fernandez-Atutxa%NULL%0,              Amaia%Irazusta%NULL%1,              Idoia%Zarrazquin%NULL%2,              Idoia%Zarrazquin%NULL%0,              Simona%Bo%NULL%4,              Simona%Bo%NULL%0,              Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,             Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,             Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,             Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,             Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,              Emma%Ward%NULL%2,              Emma%Ward%NULL%0,              Mizanur%Khondoker%NULL%1,              Pippa%Belderson%NULL%1,              Anne%Marie Minihane%NULL%1,              Jack%Dainty%NULL%1,              Sarah%Hanson%NULL%1,              Richard%Holland%NULL%1,              Tracey%Brown%NULL%1,              Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,              Andrea D.%Smith%NULL%1,              Feifei%Bu%NULL%1,              Andrew%Steptoe%NULL%1,              Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,              Chihiro%Munekawa%NULL%1,              Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,              Takuro%Okamura%NULL%2,              Takuro%Okamura%NULL%0,              Fuyuko%Takahashi%NULL%1,              Rena%Kawano%NULL%1,              Hanako%Nakajima%NULL%1,              Saori%Majima%NULL%1,              Takafumi%Senmaru%NULL%1,              Naoko%Nakanishi%NULL%1,              Emi%Ushigome%NULL%1,              Masahide%Hamaguchi%NULL%1,              Masahiro%Yamazaki%NULL%1,              Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,              Satomi%Kobayashi%NULL%1,              Mai%Yamaguchi%NULL%1,              Ryohei%Sakata%NULL%1,              Yuki%Sasaki%NULL%1,              Chiaki%Murayama%NULL%1,              Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,              Luca%Pecoraro%NULL%1,              Alessandro%Ferruzzi%NULL%1,              Moonseong%Heo%NULL%1,              Myles%Faith%NULL%1,              Thomas%Zoller%NULL%2,              Thomas%Zoller%NULL%0,              Franco%Antoniazzi%NULL%1,              Giorgio%Piacentini%NULL%1,              S. Nicole%Fearnbach%NULL%1,              Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,              Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,             Cignarelli%A.%coreGivesNoEmail%1,             Di%Molfetta S.%coreGivesNoEmail%1,             Giordano%F.%coreGivesNoEmail%1,             Giorgino%F.%coreGivesNoEmail%1,             Guarini%F.%coreGivesNoEmail%1,             Laviola%L.%coreGivesNoEmail%1,             Leonardini%A.%coreGivesNoEmail%1,             Natalicchio%A.%coreGivesNoEmail%1,             Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,              Valentina%Ponzo%NULL%1,              Rosalba%Rosato%NULL%1,              Elena%Scumaci%NULL%1,              Ilaria%Goitre%NULL%1,              Andrea%Benso%NULL%1,              Sara%Belcastro%NULL%1,              Chiara%Crespi%NULL%1,              Franco%De Michieli%NULL%1,              Ezio%Ghigo%NULL%1,              Fabio%Broglio%NULL%1,              Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1375,7 +1414,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1404,7 +1443,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1433,7 +1472,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1462,7 +1501,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1491,7 +1530,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1520,7 +1559,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1549,7 +1588,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1578,7 +1617,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1607,7 +1646,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1636,7 +1675,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1665,7 +1704,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1694,7 +1733,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="275">
   <si>
     <t>Doi</t>
   </si>
@@ -999,6 +999,45 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,              Valentina%Ponzo%NULL%1,              Rosalba%Rosato%NULL%1,              Elena%Scumaci%NULL%1,              Ilaria%Goitre%NULL%1,              Andrea%Benso%NULL%1,              Sara%Belcastro%NULL%1,              Chiara%Crespi%NULL%1,              Franco%De Michieli%NULL%1,              Ezio%Ghigo%NULL%1,              Fabio%Broglio%NULL%1,              Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,               Silvia%Brazzo%NULL%1,               Rachele%De Giuseppe%NULL%1,               Ginevra%Biino%NULL%2,               Ginevra%Biino%NULL%0,               Ilaria%Vietti%NULL%1,               Cristina%Pallavicini%NULL%1,               Hellas%Cena%NULL%1,               Emma%Ruiz Moreno%NULL%3,               Emma%Ruiz Moreno%NULL%0,               Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,               Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,               Sandro%Sperandei%NULL%1,               Louise%Freebairn%NULL%1,               Elizabeth%Conroy%NULL%1,               Hir%Jani%NULL%1,               Sandra%Marjanovic%NULL%1,               Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,               Timothy%Olds%NULL%2,               Timothy%Olds%NULL%0,               Ty%Ferguson%NULL%1,               François%Fraysse%NULL%2,               François%Fraysse%NULL%0,               Dorothea%Dumuid%NULL%1,               Adrian%Esterman%NULL%1,               Gilly A.%Hendrie%NULL%1,               Wendy J.%Brown%NULL%1,               Rajini%Lagiseti%NULL%1,               Carol A.%Maher%NULL%1,               Stephanie%Prince Ware%NULL%2,               Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,               Ana-Belén%Fraile-Bermúdez%NULL%2,               Ana-Belén%Fraile-Bermúdez%NULL%0,               Batirtze San%Martín-Gamboa%NULL%2,               Batirtze San%Martín-Gamboa%NULL%0,               Silvia%Cepeda-Miguel%NULL%1,               Borja%Doncel-García%NULL%2,               Borja%Doncel-García%NULL%0,               Ainhoa%Fernandez-Atutxa%NULL%2,               Ainhoa%Fernandez-Atutxa%NULL%0,               Amaia%Irazusta%NULL%1,               Idoia%Zarrazquin%NULL%2,               Idoia%Zarrazquin%NULL%0,               Simona%Bo%NULL%4,               Simona%Bo%NULL%0,               Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,              Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,              Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,              Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,              Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,               Emma%Ward%NULL%2,               Emma%Ward%NULL%0,               Mizanur%Khondoker%NULL%1,               Pippa%Belderson%NULL%1,               Anne%Marie Minihane%NULL%1,               Jack%Dainty%NULL%1,               Sarah%Hanson%NULL%1,               Richard%Holland%NULL%1,               Tracey%Brown%NULL%1,               Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,               Andrea D.%Smith%NULL%1,               Feifei%Bu%NULL%1,               Andrew%Steptoe%NULL%1,               Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,               Chihiro%Munekawa%NULL%1,               Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,               Takuro%Okamura%NULL%2,               Takuro%Okamura%NULL%0,               Fuyuko%Takahashi%NULL%1,               Rena%Kawano%NULL%1,               Hanako%Nakajima%NULL%1,               Saori%Majima%NULL%1,               Takafumi%Senmaru%NULL%1,               Naoko%Nakanishi%NULL%1,               Emi%Ushigome%NULL%1,               Masahide%Hamaguchi%NULL%1,               Masahiro%Yamazaki%NULL%1,               Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,               Satomi%Kobayashi%NULL%1,               Mai%Yamaguchi%NULL%1,               Ryohei%Sakata%NULL%1,               Yuki%Sasaki%NULL%1,               Chiaki%Murayama%NULL%1,               Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,               Luca%Pecoraro%NULL%1,               Alessandro%Ferruzzi%NULL%1,               Moonseong%Heo%NULL%1,               Myles%Faith%NULL%1,               Thomas%Zoller%NULL%2,               Thomas%Zoller%NULL%0,               Franco%Antoniazzi%NULL%1,               Giorgio%Piacentini%NULL%1,               S. Nicole%Fearnbach%NULL%1,               Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,               Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,              Cignarelli%A.%coreGivesNoEmail%1,              Di%Molfetta S.%coreGivesNoEmail%1,              Giordano%F.%coreGivesNoEmail%1,              Giorgino%F.%coreGivesNoEmail%1,              Guarini%F.%coreGivesNoEmail%1,              Laviola%L.%coreGivesNoEmail%1,              Leonardini%A.%coreGivesNoEmail%1,              Natalicchio%A.%coreGivesNoEmail%1,              Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,               Valentina%Ponzo%NULL%1,               Rosalba%Rosato%NULL%1,               Elena%Scumaci%NULL%1,               Ilaria%Goitre%NULL%1,               Andrea%Benso%NULL%1,               Sara%Belcastro%NULL%1,               Chiara%Crespi%NULL%1,               Franco%De Michieli%NULL%1,               Ezio%Ghigo%NULL%1,               Fabio%Broglio%NULL%1,               Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1424,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1414,7 +1453,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1443,7 +1482,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1472,7 +1511,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1501,7 +1540,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1530,7 +1569,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1559,7 +1598,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1588,7 +1627,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1617,7 +1656,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1646,7 +1685,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1675,7 +1714,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1704,7 +1743,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1733,7 +1772,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="301">
   <si>
     <t>Doi</t>
   </si>
@@ -1038,6 +1038,84 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,               Valentina%Ponzo%NULL%1,               Rosalba%Rosato%NULL%1,               Elena%Scumaci%NULL%1,               Ilaria%Goitre%NULL%1,               Andrea%Benso%NULL%1,               Sara%Belcastro%NULL%1,               Chiara%Crespi%NULL%1,               Franco%De Michieli%NULL%1,               Ezio%Ghigo%NULL%1,               Fabio%Broglio%NULL%1,               Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                Silvia%Brazzo%NULL%1,                Rachele%De Giuseppe%NULL%1,                Ginevra%Biino%NULL%2,                Ginevra%Biino%NULL%0,                Ilaria%Vietti%NULL%1,                Cristina%Pallavicini%NULL%1,                Hellas%Cena%NULL%1,                Emma%Ruiz Moreno%NULL%3,                Emma%Ruiz Moreno%NULL%0,                Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                Sandro%Sperandei%NULL%1,                Louise%Freebairn%NULL%1,                Elizabeth%Conroy%NULL%1,                Hir%Jani%NULL%1,                Sandra%Marjanovic%NULL%1,                Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                Timothy%Olds%NULL%2,                Timothy%Olds%NULL%0,                Ty%Ferguson%NULL%1,                François%Fraysse%NULL%2,                François%Fraysse%NULL%0,                Dorothea%Dumuid%NULL%1,                Adrian%Esterman%NULL%1,                Gilly A.%Hendrie%NULL%1,                Wendy J.%Brown%NULL%1,                Rajini%Lagiseti%NULL%1,                Carol A.%Maher%NULL%1,                Stephanie%Prince Ware%NULL%2,                Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                Ana-Belén%Fraile-Bermúdez%NULL%2,                Ana-Belén%Fraile-Bermúdez%NULL%0,                Batirtze San%Martín-Gamboa%NULL%2,                Batirtze San%Martín-Gamboa%NULL%0,                Silvia%Cepeda-Miguel%NULL%1,                Borja%Doncel-García%NULL%2,                Borja%Doncel-García%NULL%0,                Ainhoa%Fernandez-Atutxa%NULL%2,                Ainhoa%Fernandez-Atutxa%NULL%0,                Amaia%Irazusta%NULL%1,                Idoia%Zarrazquin%NULL%2,                Idoia%Zarrazquin%NULL%0,                Simona%Bo%NULL%4,                Simona%Bo%NULL%0,                Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,               Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,               Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,               Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,               Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                Emma%Ward%NULL%2,                Emma%Ward%NULL%0,                Mizanur%Khondoker%NULL%1,                Pippa%Belderson%NULL%1,                Anne%Marie Minihane%NULL%1,                Jack%Dainty%NULL%1,                Sarah%Hanson%NULL%1,                Richard%Holland%NULL%1,                Tracey%Brown%NULL%1,                Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                Andrea D.%Smith%NULL%1,                Feifei%Bu%NULL%1,                Andrew%Steptoe%NULL%1,                Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                Chihiro%Munekawa%NULL%1,                Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                Takuro%Okamura%NULL%2,                Takuro%Okamura%NULL%0,                Fuyuko%Takahashi%NULL%1,                Rena%Kawano%NULL%1,                Hanako%Nakajima%NULL%1,                Saori%Majima%NULL%1,                Takafumi%Senmaru%NULL%1,                Naoko%Nakanishi%NULL%1,                Emi%Ushigome%NULL%1,                Masahide%Hamaguchi%NULL%1,                Masahiro%Yamazaki%NULL%1,                Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                Satomi%Kobayashi%NULL%1,                Mai%Yamaguchi%NULL%1,                Ryohei%Sakata%NULL%1,                Yuki%Sasaki%NULL%1,                Chiaki%Murayama%NULL%1,                Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                Luca%Pecoraro%NULL%1,                Alessandro%Ferruzzi%NULL%1,                Moonseong%Heo%NULL%1,                Myles%Faith%NULL%1,                Thomas%Zoller%NULL%2,                Thomas%Zoller%NULL%0,                Franco%Antoniazzi%NULL%1,                Giorgio%Piacentini%NULL%1,                S. Nicole%Fearnbach%NULL%1,                Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%1,               Cignarelli%A.%coreGivesNoEmail%1,               Di%Molfetta S.%coreGivesNoEmail%1,               Giordano%F.%coreGivesNoEmail%1,               Giorgino%F.%coreGivesNoEmail%1,               Guarini%F.%coreGivesNoEmail%1,               Laviola%L.%coreGivesNoEmail%1,               Leonardini%A.%coreGivesNoEmail%1,               Natalicchio%A.%coreGivesNoEmail%1,               Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                Valentina%Ponzo%NULL%1,                Rosalba%Rosato%NULL%1,                Elena%Scumaci%NULL%1,                Ilaria%Goitre%NULL%1,                Andrea%Benso%NULL%1,                Sara%Belcastro%NULL%1,                Chiara%Crespi%NULL%1,                Franco%De Michieli%NULL%1,                Ezio%Ghigo%NULL%1,                Fabio%Broglio%NULL%1,                Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                 Silvia%Brazzo%NULL%1,                 Rachele%De Giuseppe%NULL%1,                 Ginevra%Biino%NULL%2,                 Ginevra%Biino%NULL%0,                 Ilaria%Vietti%NULL%1,                 Cristina%Pallavicini%NULL%1,                 Hellas%Cena%NULL%1,                 Emma%Ruiz Moreno%NULL%3,                 Emma%Ruiz Moreno%NULL%0,                 Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                 Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                 Sandro%Sperandei%NULL%1,                 Louise%Freebairn%NULL%1,                 Elizabeth%Conroy%NULL%1,                 Hir%Jani%NULL%1,                 Sandra%Marjanovic%NULL%1,                 Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                 Timothy%Olds%NULL%2,                 Timothy%Olds%NULL%0,                 Ty%Ferguson%NULL%1,                 François%Fraysse%NULL%2,                 François%Fraysse%NULL%0,                 Dorothea%Dumuid%NULL%1,                 Adrian%Esterman%NULL%1,                 Gilly A.%Hendrie%NULL%1,                 Wendy J.%Brown%NULL%1,                 Rajini%Lagiseti%NULL%1,                 Carol A.%Maher%NULL%1,                 Stephanie%Prince Ware%NULL%2,                 Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                 Ana-Belén%Fraile-Bermúdez%NULL%2,                 Ana-Belén%Fraile-Bermúdez%NULL%0,                 Batirtze San%Martín-Gamboa%NULL%2,                 Batirtze San%Martín-Gamboa%NULL%0,                 Silvia%Cepeda-Miguel%NULL%1,                 Borja%Doncel-García%NULL%2,                 Borja%Doncel-García%NULL%0,                 Ainhoa%Fernandez-Atutxa%NULL%2,                 Ainhoa%Fernandez-Atutxa%NULL%0,                 Amaia%Irazusta%NULL%1,                 Idoia%Zarrazquin%NULL%2,                 Idoia%Zarrazquin%NULL%0,                 Simona%Bo%NULL%4,                 Simona%Bo%NULL%0,                 Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                 Emma%Ward%NULL%2,                 Emma%Ward%NULL%0,                 Mizanur%Khondoker%NULL%1,                 Pippa%Belderson%NULL%1,                 Anne%Marie Minihane%NULL%1,                 Jack%Dainty%NULL%1,                 Sarah%Hanson%NULL%1,                 Richard%Holland%NULL%1,                 Tracey%Brown%NULL%1,                 Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                 Andrea D.%Smith%NULL%1,                 Feifei%Bu%NULL%1,                 Andrew%Steptoe%NULL%1,                 Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                 Chihiro%Munekawa%NULL%1,                 Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                 Takuro%Okamura%NULL%2,                 Takuro%Okamura%NULL%0,                 Fuyuko%Takahashi%NULL%1,                 Rena%Kawano%NULL%1,                 Hanako%Nakajima%NULL%1,                 Saori%Majima%NULL%1,                 Takafumi%Senmaru%NULL%1,                 Naoko%Nakanishi%NULL%1,                 Emi%Ushigome%NULL%1,                 Masahide%Hamaguchi%NULL%1,                 Masahiro%Yamazaki%NULL%1,                 Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                 Satomi%Kobayashi%NULL%1,                 Mai%Yamaguchi%NULL%1,                 Ryohei%Sakata%NULL%1,                 Yuki%Sasaki%NULL%1,                 Chiaki%Murayama%NULL%1,                 Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                 Luca%Pecoraro%NULL%1,                 Alessandro%Ferruzzi%NULL%1,                 Moonseong%Heo%NULL%1,                 Myles%Faith%NULL%1,                 Thomas%Zoller%NULL%2,                 Thomas%Zoller%NULL%0,                 Franco%Antoniazzi%NULL%1,                 Giorgio%Piacentini%NULL%1,                 S. Nicole%Fearnbach%NULL%1,                 Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                 Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                Cignarelli%A.%coreGivesNoEmail%1,                Di%Molfetta S.%coreGivesNoEmail%1,                Giordano%F.%coreGivesNoEmail%1,                Giorgino%F.%coreGivesNoEmail%1,                Guarini%F.%coreGivesNoEmail%1,                Laviola%L.%coreGivesNoEmail%1,                Leonardini%A.%coreGivesNoEmail%1,                Natalicchio%A.%coreGivesNoEmail%1,                Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                 Valentina%Ponzo%NULL%1,                 Rosalba%Rosato%NULL%1,                 Elena%Scumaci%NULL%1,                 Ilaria%Goitre%NULL%1,                 Andrea%Benso%NULL%1,                 Sara%Belcastro%NULL%1,                 Chiara%Crespi%NULL%1,                 Franco%De Michieli%NULL%1,                 Ezio%Ghigo%NULL%1,                 Fabio%Broglio%NULL%1,                 Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1453,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1482,7 +1560,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1511,7 +1589,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1540,7 +1618,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1569,7 +1647,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1598,7 +1676,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1627,7 +1705,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1656,7 +1734,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1685,7 +1763,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1714,7 +1792,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1743,7 +1821,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1772,7 +1850,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="314">
   <si>
     <t>Doi</t>
   </si>
@@ -1116,6 +1116,45 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,                 Valentina%Ponzo%NULL%1,                 Rosalba%Rosato%NULL%1,                 Elena%Scumaci%NULL%1,                 Ilaria%Goitre%NULL%1,                 Andrea%Benso%NULL%1,                 Sara%Belcastro%NULL%1,                 Chiara%Crespi%NULL%1,                 Franco%De Michieli%NULL%1,                 Ezio%Ghigo%NULL%1,                 Fabio%Broglio%NULL%1,                 Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                  Silvia%Brazzo%NULL%1,                  Rachele%De Giuseppe%NULL%1,                  Ginevra%Biino%NULL%2,                  Ginevra%Biino%NULL%0,                  Ilaria%Vietti%NULL%1,                  Cristina%Pallavicini%NULL%1,                  Hellas%Cena%NULL%1,                  Emma%Ruiz Moreno%NULL%3,                  Emma%Ruiz Moreno%NULL%0,                  Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                  Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                  Sandro%Sperandei%NULL%1,                  Louise%Freebairn%NULL%1,                  Elizabeth%Conroy%NULL%1,                  Hir%Jani%NULL%1,                  Sandra%Marjanovic%NULL%1,                  Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                  Timothy%Olds%NULL%2,                  Timothy%Olds%NULL%0,                  Ty%Ferguson%NULL%1,                  François%Fraysse%NULL%2,                  François%Fraysse%NULL%0,                  Dorothea%Dumuid%NULL%1,                  Adrian%Esterman%NULL%1,                  Gilly A.%Hendrie%NULL%1,                  Wendy J.%Brown%NULL%1,                  Rajini%Lagiseti%NULL%1,                  Carol A.%Maher%NULL%1,                  Stephanie%Prince Ware%NULL%2,                  Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                  Ana-Belén%Fraile-Bermúdez%NULL%2,                  Ana-Belén%Fraile-Bermúdez%NULL%0,                  Batirtze San%Martín-Gamboa%NULL%2,                  Batirtze San%Martín-Gamboa%NULL%0,                  Silvia%Cepeda-Miguel%NULL%1,                  Borja%Doncel-García%NULL%2,                  Borja%Doncel-García%NULL%0,                  Ainhoa%Fernandez-Atutxa%NULL%2,                  Ainhoa%Fernandez-Atutxa%NULL%0,                  Amaia%Irazusta%NULL%1,                  Idoia%Zarrazquin%NULL%2,                  Idoia%Zarrazquin%NULL%0,                  Simona%Bo%NULL%4,                  Simona%Bo%NULL%0,                  Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                 Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                 Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                 Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                 Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                  Emma%Ward%NULL%2,                  Emma%Ward%NULL%0,                  Mizanur%Khondoker%NULL%1,                  Pippa%Belderson%NULL%1,                  Anne%Marie Minihane%NULL%1,                  Jack%Dainty%NULL%1,                  Sarah%Hanson%NULL%1,                  Richard%Holland%NULL%1,                  Tracey%Brown%NULL%1,                  Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                  Andrea D.%Smith%NULL%1,                  Feifei%Bu%NULL%1,                  Andrew%Steptoe%NULL%1,                  Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                  Chihiro%Munekawa%NULL%1,                  Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                  Takuro%Okamura%NULL%2,                  Takuro%Okamura%NULL%0,                  Fuyuko%Takahashi%NULL%1,                  Rena%Kawano%NULL%1,                  Hanako%Nakajima%NULL%1,                  Saori%Majima%NULL%1,                  Takafumi%Senmaru%NULL%1,                  Naoko%Nakanishi%NULL%1,                  Emi%Ushigome%NULL%1,                  Masahide%Hamaguchi%NULL%1,                  Masahiro%Yamazaki%NULL%1,                  Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                  Satomi%Kobayashi%NULL%1,                  Mai%Yamaguchi%NULL%1,                  Ryohei%Sakata%NULL%1,                  Yuki%Sasaki%NULL%1,                  Chiaki%Murayama%NULL%1,                  Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                  Luca%Pecoraro%NULL%1,                  Alessandro%Ferruzzi%NULL%1,                  Moonseong%Heo%NULL%1,                  Myles%Faith%NULL%1,                  Thomas%Zoller%NULL%2,                  Thomas%Zoller%NULL%0,                  Franco%Antoniazzi%NULL%1,                  Giorgio%Piacentini%NULL%1,                  S. Nicole%Fearnbach%NULL%1,                  Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                  Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                 Cignarelli%A.%coreGivesNoEmail%1,                 Di%Molfetta S.%coreGivesNoEmail%1,                 Giordano%F.%coreGivesNoEmail%1,                 Giorgino%F.%coreGivesNoEmail%1,                 Guarini%F.%coreGivesNoEmail%1,                 Laviola%L.%coreGivesNoEmail%1,                 Leonardini%A.%coreGivesNoEmail%1,                 Natalicchio%A.%coreGivesNoEmail%1,                 Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                  Valentina%Ponzo%NULL%1,                  Rosalba%Rosato%NULL%1,                  Elena%Scumaci%NULL%1,                  Ilaria%Goitre%NULL%1,                  Andrea%Benso%NULL%1,                  Sara%Belcastro%NULL%1,                  Chiara%Crespi%NULL%1,                  Franco%De Michieli%NULL%1,                  Ezio%Ghigo%NULL%1,                  Fabio%Broglio%NULL%1,                  Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1541,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1531,7 +1570,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1560,7 +1599,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1589,7 +1628,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1618,7 +1657,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1647,7 +1686,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1676,7 +1715,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1705,7 +1744,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1734,7 +1773,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1763,7 +1802,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1792,7 +1831,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1821,7 +1860,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1850,7 +1889,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="331">
   <si>
     <t>Doi</t>
   </si>
@@ -1155,6 +1155,57 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,                  Valentina%Ponzo%NULL%1,                  Rosalba%Rosato%NULL%1,                  Elena%Scumaci%NULL%1,                  Ilaria%Goitre%NULL%1,                  Andrea%Benso%NULL%1,                  Sara%Belcastro%NULL%1,                  Chiara%Crespi%NULL%1,                  Franco%De Michieli%NULL%1,                  Ezio%Ghigo%NULL%1,                  Fabio%Broglio%NULL%1,                  Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                   Silvia%Brazzo%NULL%1,                   Rachele%De Giuseppe%NULL%1,                   Ginevra%Biino%NULL%2,                   Ginevra%Biino%NULL%0,                   Ilaria%Vietti%NULL%1,                   Cristina%Pallavicini%NULL%1,                   Hellas%Cena%NULL%1,                   Emma%Ruiz Moreno%NULL%3,                   Emma%Ruiz Moreno%NULL%0,                   Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                   Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                   Sandro%Sperandei%NULL%1,                   Louise%Freebairn%NULL%1,                   Elizabeth%Conroy%NULL%1,                   Hir%Jani%NULL%1,                   Sandra%Marjanovic%NULL%1,                   Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                   Timothy%Olds%NULL%2,                   Timothy%Olds%NULL%0,                   Ty%Ferguson%NULL%1,                   François%Fraysse%NULL%2,                   François%Fraysse%NULL%0,                   Dorothea%Dumuid%NULL%1,                   Adrian%Esterman%NULL%1,                   Gilly A.%Hendrie%NULL%1,                   Wendy J.%Brown%NULL%1,                   Rajini%Lagiseti%NULL%1,                   Carol A.%Maher%NULL%1,                   Stephanie%Prince Ware%NULL%2,                   Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                   Ana-Belén%Fraile-Bermúdez%NULL%2,                   Ana-Belén%Fraile-Bermúdez%NULL%0,                   Batirtze San%Martín-Gamboa%NULL%2,                   Batirtze San%Martín-Gamboa%NULL%0,                   Silvia%Cepeda-Miguel%NULL%1,                   Borja%Doncel-García%NULL%2,                   Borja%Doncel-García%NULL%0,                   Ainhoa%Fernandez-Atutxa%NULL%2,                   Ainhoa%Fernandez-Atutxa%NULL%0,                   Amaia%Irazusta%NULL%1,                   Idoia%Zarrazquin%NULL%2,                   Idoia%Zarrazquin%NULL%0,                   Simona%Bo%NULL%4,                   Simona%Bo%NULL%0,                   Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                  Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                  Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                  Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                  Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                   Emma%Ward%NULL%2,                   Emma%Ward%NULL%0,                   Mizanur%Khondoker%NULL%1,                   Pippa%Belderson%NULL%1,                   Anne%Marie Minihane%NULL%1,                   Jack%Dainty%NULL%1,                   Sarah%Hanson%NULL%1,                   Richard%Holland%NULL%1,                   Tracey%Brown%NULL%1,                   Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                   Andrea D.%Smith%NULL%1,                   Feifei%Bu%NULL%1,                   Andrew%Steptoe%NULL%1,                   Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                   Chihiro%Munekawa%NULL%1,                   Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                   Takuro%Okamura%NULL%2,                   Takuro%Okamura%NULL%0,                   Fuyuko%Takahashi%NULL%1,                   Rena%Kawano%NULL%1,                   Hanako%Nakajima%NULL%1,                   Saori%Majima%NULL%1,                   Takafumi%Senmaru%NULL%1,                   Naoko%Nakanishi%NULL%1,                   Emi%Ushigome%NULL%1,                   Masahide%Hamaguchi%NULL%1,                   Masahiro%Yamazaki%NULL%1,                   Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                   Satomi%Kobayashi%NULL%1,                   Mai%Yamaguchi%NULL%1,                   Ryohei%Sakata%NULL%1,                   Yuki%Sasaki%NULL%1,                   Chiaki%Murayama%NULL%1,                   Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                   Luca%Pecoraro%NULL%1,                   Alessandro%Ferruzzi%NULL%1,                   Moonseong%Heo%NULL%1,                   Myles%Faith%NULL%1,                   Thomas%Zoller%NULL%2,                   Thomas%Zoller%NULL%0,                   Franco%Antoniazzi%NULL%1,                   Giorgio%Piacentini%NULL%1,                   S. Nicole%Fearnbach%NULL%1,                   Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                   Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                  Cignarelli%A.%coreGivesNoEmail%1,                  Di%Molfetta S.%coreGivesNoEmail%1,                  Giordano%F.%coreGivesNoEmail%1,                  Giorgino%F.%coreGivesNoEmail%1,                  Guarini%F.%coreGivesNoEmail%1,                  Laviola%L.%coreGivesNoEmail%1,                  Leonardini%A.%coreGivesNoEmail%1,                  Natalicchio%A.%coreGivesNoEmail%1,                  Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                   Valentina%Ponzo%NULL%1,                   Rosalba%Rosato%NULL%1,                   Elena%Scumaci%NULL%1,                   Ilaria%Goitre%NULL%1,                   Andrea%Benso%NULL%1,                   Sara%Belcastro%NULL%1,                   Chiara%Crespi%NULL%1,                   Franco%De Michieli%NULL%1,                   Ezio%Ghigo%NULL%1,                   Fabio%Broglio%NULL%1,                   Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1592,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1553,7 +1604,7 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
@@ -1570,7 +1621,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1582,7 +1633,7 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
@@ -1599,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1611,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
@@ -1628,7 +1679,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1640,7 +1691,7 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6">
@@ -1657,7 +1708,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1669,7 +1720,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7">
@@ -1686,7 +1737,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1698,7 +1749,7 @@
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
@@ -1715,7 +1766,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1727,7 +1778,7 @@
         <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9">
@@ -1744,7 +1795,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1756,7 +1807,7 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10">
@@ -1773,7 +1824,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1785,7 +1836,7 @@
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11">
@@ -1802,7 +1853,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1814,7 +1865,7 @@
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12">
@@ -1831,7 +1882,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1843,7 +1894,7 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13">
@@ -1860,7 +1911,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1872,7 +1923,7 @@
         <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14">
@@ -1889,7 +1940,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
@@ -1901,7 +1952,7 @@
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="344">
   <si>
     <t>Doi</t>
   </si>
@@ -1206,6 +1206,45 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,                   Valentina%Ponzo%NULL%1,                   Rosalba%Rosato%NULL%1,                   Elena%Scumaci%NULL%1,                   Ilaria%Goitre%NULL%1,                   Andrea%Benso%NULL%1,                   Sara%Belcastro%NULL%1,                   Chiara%Crespi%NULL%1,                   Franco%De Michieli%NULL%1,                   Ezio%Ghigo%NULL%1,                   Fabio%Broglio%NULL%1,                   Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                    Silvia%Brazzo%NULL%1,                    Rachele%De Giuseppe%NULL%1,                    Ginevra%Biino%NULL%2,                    Ginevra%Biino%NULL%0,                    Ilaria%Vietti%NULL%1,                    Cristina%Pallavicini%NULL%1,                    Hellas%Cena%NULL%1,                    Emma%Ruiz Moreno%NULL%3,                    Emma%Ruiz Moreno%NULL%0,                    Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                    Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                    Sandro%Sperandei%NULL%1,                    Louise%Freebairn%NULL%1,                    Elizabeth%Conroy%NULL%1,                    Hir%Jani%NULL%1,                    Sandra%Marjanovic%NULL%1,                    Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                    Timothy%Olds%NULL%2,                    Timothy%Olds%NULL%0,                    Ty%Ferguson%NULL%1,                    François%Fraysse%NULL%2,                    François%Fraysse%NULL%0,                    Dorothea%Dumuid%NULL%1,                    Adrian%Esterman%NULL%1,                    Gilly A.%Hendrie%NULL%1,                    Wendy J.%Brown%NULL%1,                    Rajini%Lagiseti%NULL%1,                    Carol A.%Maher%NULL%1,                    Stephanie%Prince Ware%NULL%2,                    Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                    Ana-Belén%Fraile-Bermúdez%NULL%2,                    Ana-Belén%Fraile-Bermúdez%NULL%0,                    Batirtze San%Martín-Gamboa%NULL%2,                    Batirtze San%Martín-Gamboa%NULL%0,                    Silvia%Cepeda-Miguel%NULL%1,                    Borja%Doncel-García%NULL%2,                    Borja%Doncel-García%NULL%0,                    Ainhoa%Fernandez-Atutxa%NULL%2,                    Ainhoa%Fernandez-Atutxa%NULL%0,                    Amaia%Irazusta%NULL%1,                    Idoia%Zarrazquin%NULL%2,                    Idoia%Zarrazquin%NULL%0,                    Simona%Bo%NULL%4,                    Simona%Bo%NULL%0,                    Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                   Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                   Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                   Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                   Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                    Emma%Ward%NULL%2,                    Emma%Ward%NULL%0,                    Mizanur%Khondoker%NULL%1,                    Pippa%Belderson%NULL%1,                    Anne%Marie Minihane%NULL%1,                    Jack%Dainty%NULL%1,                    Sarah%Hanson%NULL%1,                    Richard%Holland%NULL%1,                    Tracey%Brown%NULL%1,                    Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                    Andrea D.%Smith%NULL%1,                    Feifei%Bu%NULL%1,                    Andrew%Steptoe%NULL%1,                    Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                    Chihiro%Munekawa%NULL%1,                    Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                    Takuro%Okamura%NULL%2,                    Takuro%Okamura%NULL%0,                    Fuyuko%Takahashi%NULL%1,                    Rena%Kawano%NULL%1,                    Hanako%Nakajima%NULL%1,                    Saori%Majima%NULL%1,                    Takafumi%Senmaru%NULL%1,                    Naoko%Nakanishi%NULL%1,                    Emi%Ushigome%NULL%1,                    Masahide%Hamaguchi%NULL%1,                    Masahiro%Yamazaki%NULL%1,                    Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                    Satomi%Kobayashi%NULL%1,                    Mai%Yamaguchi%NULL%1,                    Ryohei%Sakata%NULL%1,                    Yuki%Sasaki%NULL%1,                    Chiaki%Murayama%NULL%1,                    Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                    Luca%Pecoraro%NULL%1,                    Alessandro%Ferruzzi%NULL%1,                    Moonseong%Heo%NULL%1,                    Myles%Faith%NULL%1,                    Thomas%Zoller%NULL%2,                    Thomas%Zoller%NULL%0,                    Franco%Antoniazzi%NULL%1,                    Giorgio%Piacentini%NULL%1,                    S. Nicole%Fearnbach%NULL%1,                    Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                    Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                   Cignarelli%A.%coreGivesNoEmail%1,                   Di%Molfetta S.%coreGivesNoEmail%1,                   Giordano%F.%coreGivesNoEmail%1,                   Giorgino%F.%coreGivesNoEmail%1,                   Guarini%F.%coreGivesNoEmail%1,                   Laviola%L.%coreGivesNoEmail%1,                   Leonardini%A.%coreGivesNoEmail%1,                   Natalicchio%A.%coreGivesNoEmail%1,                   Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                    Valentina%Ponzo%NULL%1,                    Rosalba%Rosato%NULL%1,                    Elena%Scumaci%NULL%1,                    Ilaria%Goitre%NULL%1,                    Andrea%Benso%NULL%1,                    Sara%Belcastro%NULL%1,                    Chiara%Crespi%NULL%1,                    Franco%De Michieli%NULL%1,                    Ezio%Ghigo%NULL%1,                    Fabio%Broglio%NULL%1,                    Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1621,7 +1660,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1650,7 +1689,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1679,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1708,7 +1747,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1737,7 +1776,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1766,7 +1805,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1795,7 +1834,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1824,7 +1863,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1853,7 +1892,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1882,7 +1921,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1911,7 +1950,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1940,7 +1979,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="410">
   <si>
     <t>Doi</t>
   </si>
@@ -1245,6 +1245,204 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,                    Valentina%Ponzo%NULL%1,                    Rosalba%Rosato%NULL%1,                    Elena%Scumaci%NULL%1,                    Ilaria%Goitre%NULL%1,                    Andrea%Benso%NULL%1,                    Sara%Belcastro%NULL%1,                    Chiara%Crespi%NULL%1,                    Franco%De Michieli%NULL%1,                    Ezio%Ghigo%NULL%1,                    Fabio%Broglio%NULL%1,                    Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                     Silvia%Brazzo%NULL%1,                     Rachele%De Giuseppe%NULL%1,                     Ginevra%Biino%NULL%2,                     Ginevra%Biino%NULL%0,                     Ilaria%Vietti%NULL%1,                     Cristina%Pallavicini%NULL%1,                     Hellas%Cena%NULL%1,                     Emma%Ruiz Moreno%NULL%3,                     Emma%Ruiz Moreno%NULL%0,                     Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                     Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                     Sandro%Sperandei%NULL%1,                     Louise%Freebairn%NULL%1,                     Elizabeth%Conroy%NULL%1,                     Hir%Jani%NULL%1,                     Sandra%Marjanovic%NULL%1,                     Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                     Timothy%Olds%NULL%2,                     Timothy%Olds%NULL%0,                     Ty%Ferguson%NULL%1,                     François%Fraysse%NULL%2,                     François%Fraysse%NULL%0,                     Dorothea%Dumuid%NULL%1,                     Adrian%Esterman%NULL%1,                     Gilly A.%Hendrie%NULL%1,                     Wendy J.%Brown%NULL%1,                     Rajini%Lagiseti%NULL%1,                     Carol A.%Maher%NULL%1,                     Stephanie%Prince Ware%NULL%2,                     Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                     Ana-Belén%Fraile-Bermúdez%NULL%2,                     Ana-Belén%Fraile-Bermúdez%NULL%0,                     Batirtze San%Martín-Gamboa%NULL%2,                     Batirtze San%Martín-Gamboa%NULL%0,                     Silvia%Cepeda-Miguel%NULL%1,                     Borja%Doncel-García%NULL%2,                     Borja%Doncel-García%NULL%0,                     Ainhoa%Fernandez-Atutxa%NULL%2,                     Ainhoa%Fernandez-Atutxa%NULL%0,                     Amaia%Irazusta%NULL%1,                     Idoia%Zarrazquin%NULL%2,                     Idoia%Zarrazquin%NULL%0,                     Simona%Bo%NULL%4,                     Simona%Bo%NULL%0,                     Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                    Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                    Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                    Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                    Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                     Emma%Ward%NULL%2,                     Emma%Ward%NULL%0,                     Mizanur%Khondoker%NULL%1,                     Pippa%Belderson%NULL%1,                     Anne%Marie Minihane%NULL%1,                     Jack%Dainty%NULL%1,                     Sarah%Hanson%NULL%1,                     Richard%Holland%NULL%1,                     Tracey%Brown%NULL%1,                     Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                     Andrea D.%Smith%NULL%1,                     Feifei%Bu%NULL%1,                     Andrew%Steptoe%NULL%1,                     Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                     Chihiro%Munekawa%NULL%1,                     Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                     Takuro%Okamura%NULL%2,                     Takuro%Okamura%NULL%0,                     Fuyuko%Takahashi%NULL%1,                     Rena%Kawano%NULL%1,                     Hanako%Nakajima%NULL%1,                     Saori%Majima%NULL%1,                     Takafumi%Senmaru%NULL%1,                     Naoko%Nakanishi%NULL%1,                     Emi%Ushigome%NULL%1,                     Masahide%Hamaguchi%NULL%1,                     Masahiro%Yamazaki%NULL%1,                     Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                     Satomi%Kobayashi%NULL%1,                     Mai%Yamaguchi%NULL%1,                     Ryohei%Sakata%NULL%1,                     Yuki%Sasaki%NULL%1,                     Chiaki%Murayama%NULL%1,                     Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                     Luca%Pecoraro%NULL%1,                     Alessandro%Ferruzzi%NULL%1,                     Moonseong%Heo%NULL%1,                     Myles%Faith%NULL%1,                     Thomas%Zoller%NULL%2,                     Thomas%Zoller%NULL%0,                     Franco%Antoniazzi%NULL%1,                     Giorgio%Piacentini%NULL%1,                     S. Nicole%Fearnbach%NULL%1,                     Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                     Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                    Cignarelli%A.%coreGivesNoEmail%1,                    Di%Molfetta S.%coreGivesNoEmail%1,                    Giordano%F.%coreGivesNoEmail%1,                    Giorgino%F.%coreGivesNoEmail%1,                    Guarini%F.%coreGivesNoEmail%1,                    Laviola%L.%coreGivesNoEmail%1,                    Leonardini%A.%coreGivesNoEmail%1,                    Natalicchio%A.%coreGivesNoEmail%1,                    Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                     Valentina%Ponzo%NULL%1,                     Rosalba%Rosato%NULL%1,                     Elena%Scumaci%NULL%1,                     Ilaria%Goitre%NULL%1,                     Andrea%Benso%NULL%1,                     Sara%Belcastro%NULL%1,                     Chiara%Crespi%NULL%1,                     Franco%De Michieli%NULL%1,                     Ezio%Ghigo%NULL%1,                     Fabio%Broglio%NULL%1,                     Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                      Silvia%Brazzo%NULL%1,                      Rachele%De Giuseppe%NULL%1,                      Ginevra%Biino%NULL%2,                      Ginevra%Biino%NULL%0,                      Ilaria%Vietti%NULL%1,                      Cristina%Pallavicini%NULL%1,                      Hellas%Cena%NULL%1,                      Emma%Ruiz Moreno%NULL%3,                      Emma%Ruiz Moreno%NULL%0,                      Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                      Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                      Sandro%Sperandei%NULL%1,                      Louise%Freebairn%NULL%1,                      Elizabeth%Conroy%NULL%1,                      Hir%Jani%NULL%1,                      Sandra%Marjanovic%NULL%1,                      Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                      Timothy%Olds%NULL%2,                      Timothy%Olds%NULL%0,                      Ty%Ferguson%NULL%1,                      François%Fraysse%NULL%2,                      François%Fraysse%NULL%0,                      Dorothea%Dumuid%NULL%1,                      Adrian%Esterman%NULL%1,                      Gilly A.%Hendrie%NULL%1,                      Wendy J.%Brown%NULL%1,                      Rajini%Lagiseti%NULL%1,                      Carol A.%Maher%NULL%1,                      Stephanie%Prince Ware%NULL%2,                      Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                      Ana-Belén%Fraile-Bermúdez%NULL%2,                      Ana-Belén%Fraile-Bermúdez%NULL%0,                      Batirtze San%Martín-Gamboa%NULL%2,                      Batirtze San%Martín-Gamboa%NULL%0,                      Silvia%Cepeda-Miguel%NULL%1,                      Borja%Doncel-García%NULL%2,                      Borja%Doncel-García%NULL%0,                      Ainhoa%Fernandez-Atutxa%NULL%2,                      Ainhoa%Fernandez-Atutxa%NULL%0,                      Amaia%Irazusta%NULL%1,                      Idoia%Zarrazquin%NULL%2,                      Idoia%Zarrazquin%NULL%0,                      Simona%Bo%NULL%4,                      Simona%Bo%NULL%0,                      Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                     Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                     Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                     Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                     Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                      Emma%Ward%NULL%2,                      Emma%Ward%NULL%0,                      Mizanur%Khondoker%NULL%1,                      Pippa%Belderson%NULL%1,                      Anne%Marie Minihane%NULL%1,                      Jack%Dainty%NULL%1,                      Sarah%Hanson%NULL%1,                      Richard%Holland%NULL%1,                      Tracey%Brown%NULL%1,                      Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                      Andrea D.%Smith%NULL%1,                      Feifei%Bu%NULL%1,                      Andrew%Steptoe%NULL%1,                      Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                      Chihiro%Munekawa%NULL%1,                      Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                      Takuro%Okamura%NULL%2,                      Takuro%Okamura%NULL%0,                      Fuyuko%Takahashi%NULL%1,                      Rena%Kawano%NULL%1,                      Hanako%Nakajima%NULL%1,                      Saori%Majima%NULL%1,                      Takafumi%Senmaru%NULL%1,                      Naoko%Nakanishi%NULL%1,                      Emi%Ushigome%NULL%1,                      Masahide%Hamaguchi%NULL%1,                      Masahiro%Yamazaki%NULL%1,                      Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                      Satomi%Kobayashi%NULL%1,                      Mai%Yamaguchi%NULL%1,                      Ryohei%Sakata%NULL%1,                      Yuki%Sasaki%NULL%1,                      Chiaki%Murayama%NULL%1,                      Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                      Luca%Pecoraro%NULL%1,                      Alessandro%Ferruzzi%NULL%1,                      Moonseong%Heo%NULL%1,                      Myles%Faith%NULL%1,                      Thomas%Zoller%NULL%2,                      Thomas%Zoller%NULL%0,                      Franco%Antoniazzi%NULL%1,                      Giorgio%Piacentini%NULL%1,                      S. Nicole%Fearnbach%NULL%1,                      Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                      Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                     Cignarelli%A.%coreGivesNoEmail%1,                     Di%Molfetta S.%coreGivesNoEmail%1,                     Giordano%F.%coreGivesNoEmail%1,                     Giorgino%F.%coreGivesNoEmail%1,                     Guarini%F.%coreGivesNoEmail%1,                     Laviola%L.%coreGivesNoEmail%1,                     Leonardini%A.%coreGivesNoEmail%1,                     Natalicchio%A.%coreGivesNoEmail%1,                     Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                      Valentina%Ponzo%NULL%1,                      Rosalba%Rosato%NULL%1,                      Elena%Scumaci%NULL%1,                      Ilaria%Goitre%NULL%1,                      Andrea%Benso%NULL%1,                      Sara%Belcastro%NULL%1,                      Chiara%Crespi%NULL%1,                      Franco%De Michieli%NULL%1,                      Ezio%Ghigo%NULL%1,                      Fabio%Broglio%NULL%1,                      Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                       Silvia%Brazzo%NULL%1,                       Rachele%De Giuseppe%NULL%1,                       Ginevra%Biino%NULL%2,                       Ginevra%Biino%NULL%0,                       Ilaria%Vietti%NULL%1,                       Cristina%Pallavicini%NULL%1,                       Hellas%Cena%NULL%1,                       Emma%Ruiz Moreno%NULL%3,                       Emma%Ruiz Moreno%NULL%0,                       Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                       Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                       Sandro%Sperandei%NULL%1,                       Louise%Freebairn%NULL%1,                       Elizabeth%Conroy%NULL%1,                       Hir%Jani%NULL%1,                       Sandra%Marjanovic%NULL%1,                       Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                       Timothy%Olds%NULL%2,                       Timothy%Olds%NULL%0,                       Ty%Ferguson%NULL%1,                       François%Fraysse%NULL%2,                       François%Fraysse%NULL%0,                       Dorothea%Dumuid%NULL%1,                       Adrian%Esterman%NULL%1,                       Gilly A.%Hendrie%NULL%1,                       Wendy J.%Brown%NULL%1,                       Rajini%Lagiseti%NULL%1,                       Carol A.%Maher%NULL%1,                       Stephanie%Prince Ware%NULL%2,                       Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                       Ana-Belén%Fraile-Bermúdez%NULL%2,                       Ana-Belén%Fraile-Bermúdez%NULL%0,                       Batirtze San%Martín-Gamboa%NULL%2,                       Batirtze San%Martín-Gamboa%NULL%0,                       Silvia%Cepeda-Miguel%NULL%1,                       Borja%Doncel-García%NULL%2,                       Borja%Doncel-García%NULL%0,                       Ainhoa%Fernandez-Atutxa%NULL%2,                       Ainhoa%Fernandez-Atutxa%NULL%0,                       Amaia%Irazusta%NULL%1,                       Idoia%Zarrazquin%NULL%2,                       Idoia%Zarrazquin%NULL%0,                       Simona%Bo%NULL%4,                       Simona%Bo%NULL%0,                       Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                      Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                      Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                      Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                      Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                       Emma%Ward%NULL%2,                       Emma%Ward%NULL%0,                       Mizanur%Khondoker%NULL%1,                       Pippa%Belderson%NULL%1,                       Anne%Marie Minihane%NULL%1,                       Jack%Dainty%NULL%1,                       Sarah%Hanson%NULL%1,                       Richard%Holland%NULL%1,                       Tracey%Brown%NULL%1,                       Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                       Andrea D.%Smith%NULL%1,                       Feifei%Bu%NULL%1,                       Andrew%Steptoe%NULL%1,                       Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                       Chihiro%Munekawa%NULL%1,                       Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                       Takuro%Okamura%NULL%2,                       Takuro%Okamura%NULL%0,                       Fuyuko%Takahashi%NULL%1,                       Rena%Kawano%NULL%1,                       Hanako%Nakajima%NULL%1,                       Saori%Majima%NULL%1,                       Takafumi%Senmaru%NULL%1,                       Naoko%Nakanishi%NULL%1,                       Emi%Ushigome%NULL%1,                       Masahide%Hamaguchi%NULL%1,                       Masahiro%Yamazaki%NULL%1,                       Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                       Satomi%Kobayashi%NULL%1,                       Mai%Yamaguchi%NULL%1,                       Ryohei%Sakata%NULL%1,                       Yuki%Sasaki%NULL%1,                       Chiaki%Murayama%NULL%1,                       Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                       Luca%Pecoraro%NULL%1,                       Alessandro%Ferruzzi%NULL%1,                       Moonseong%Heo%NULL%1,                       Myles%Faith%NULL%1,                       Thomas%Zoller%NULL%2,                       Thomas%Zoller%NULL%0,                       Franco%Antoniazzi%NULL%1,                       Giorgio%Piacentini%NULL%1,                       S. Nicole%Fearnbach%NULL%1,                       Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                       Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                      Cignarelli%A.%coreGivesNoEmail%1,                      Di%Molfetta S.%coreGivesNoEmail%1,                      Giordano%F.%coreGivesNoEmail%1,                      Giorgino%F.%coreGivesNoEmail%1,                      Guarini%F.%coreGivesNoEmail%1,                      Laviola%L.%coreGivesNoEmail%1,                      Leonardini%A.%coreGivesNoEmail%1,                      Natalicchio%A.%coreGivesNoEmail%1,                      Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                       Valentina%Ponzo%NULL%1,                       Rosalba%Rosato%NULL%1,                       Elena%Scumaci%NULL%1,                       Ilaria%Goitre%NULL%1,                       Andrea%Benso%NULL%1,                       Sara%Belcastro%NULL%1,                       Chiara%Crespi%NULL%1,                       Franco%De Michieli%NULL%1,                       Ezio%Ghigo%NULL%1,                       Fabio%Broglio%NULL%1,                       Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                        Silvia%Brazzo%NULL%1,                        Rachele%De Giuseppe%NULL%1,                        Ginevra%Biino%NULL%2,                        Ginevra%Biino%NULL%0,                        Ilaria%Vietti%NULL%1,                        Cristina%Pallavicini%NULL%1,                        Hellas%Cena%NULL%1,                        Emma%Ruiz Moreno%NULL%3,                        Emma%Ruiz Moreno%NULL%0,                        Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                        Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                        Sandro%Sperandei%NULL%1,                        Louise%Freebairn%NULL%1,                        Elizabeth%Conroy%NULL%1,                        Hir%Jani%NULL%1,                        Sandra%Marjanovic%NULL%1,                        Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                        Timothy%Olds%NULL%2,                        Timothy%Olds%NULL%0,                        Ty%Ferguson%NULL%1,                        François%Fraysse%NULL%2,                        François%Fraysse%NULL%0,                        Dorothea%Dumuid%NULL%1,                        Adrian%Esterman%NULL%1,                        Gilly A.%Hendrie%NULL%1,                        Wendy J.%Brown%NULL%1,                        Rajini%Lagiseti%NULL%1,                        Carol A.%Maher%NULL%1,                        Stephanie%Prince Ware%NULL%2,                        Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                        Ana-Belén%Fraile-Bermúdez%NULL%2,                        Ana-Belén%Fraile-Bermúdez%NULL%0,                        Batirtze San%Martín-Gamboa%NULL%2,                        Batirtze San%Martín-Gamboa%NULL%0,                        Silvia%Cepeda-Miguel%NULL%1,                        Borja%Doncel-García%NULL%2,                        Borja%Doncel-García%NULL%0,                        Ainhoa%Fernandez-Atutxa%NULL%2,                        Ainhoa%Fernandez-Atutxa%NULL%0,                        Amaia%Irazusta%NULL%1,                        Idoia%Zarrazquin%NULL%2,                        Idoia%Zarrazquin%NULL%0,                        Simona%Bo%NULL%4,                        Simona%Bo%NULL%0,                        Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                       Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                       Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                       Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                       Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                        Emma%Ward%NULL%2,                        Emma%Ward%NULL%0,                        Mizanur%Khondoker%NULL%1,                        Pippa%Belderson%NULL%1,                        Anne%Marie Minihane%NULL%1,                        Jack%Dainty%NULL%1,                        Sarah%Hanson%NULL%1,                        Richard%Holland%NULL%1,                        Tracey%Brown%NULL%1,                        Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                        Andrea D.%Smith%NULL%1,                        Feifei%Bu%NULL%1,                        Andrew%Steptoe%NULL%1,                        Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                        Chihiro%Munekawa%NULL%1,                        Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                        Takuro%Okamura%NULL%2,                        Takuro%Okamura%NULL%0,                        Fuyuko%Takahashi%NULL%1,                        Rena%Kawano%NULL%1,                        Hanako%Nakajima%NULL%1,                        Saori%Majima%NULL%1,                        Takafumi%Senmaru%NULL%1,                        Naoko%Nakanishi%NULL%1,                        Emi%Ushigome%NULL%1,                        Masahide%Hamaguchi%NULL%1,                        Masahiro%Yamazaki%NULL%1,                        Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                        Satomi%Kobayashi%NULL%1,                        Mai%Yamaguchi%NULL%1,                        Ryohei%Sakata%NULL%1,                        Yuki%Sasaki%NULL%1,                        Chiaki%Murayama%NULL%1,                        Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                        Luca%Pecoraro%NULL%1,                        Alessandro%Ferruzzi%NULL%1,                        Moonseong%Heo%NULL%1,                        Myles%Faith%NULL%1,                        Thomas%Zoller%NULL%2,                        Thomas%Zoller%NULL%0,                        Franco%Antoniazzi%NULL%1,                        Giorgio%Piacentini%NULL%1,                        S. Nicole%Fearnbach%NULL%1,                        Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                        Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                       Cignarelli%A.%coreGivesNoEmail%1,                       Di%Molfetta S.%coreGivesNoEmail%1,                       Giordano%F.%coreGivesNoEmail%1,                       Giorgino%F.%coreGivesNoEmail%1,                       Guarini%F.%coreGivesNoEmail%1,                       Laviola%L.%coreGivesNoEmail%1,                       Leonardini%A.%coreGivesNoEmail%1,                       Natalicchio%A.%coreGivesNoEmail%1,                       Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                        Valentina%Ponzo%NULL%1,                        Rosalba%Rosato%NULL%1,                        Elena%Scumaci%NULL%1,                        Ilaria%Goitre%NULL%1,                        Andrea%Benso%NULL%1,                        Sara%Belcastro%NULL%1,                        Chiara%Crespi%NULL%1,                        Franco%De Michieli%NULL%1,                        Ezio%Ghigo%NULL%1,                        Fabio%Broglio%NULL%1,                        Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                         Silvia%Brazzo%NULL%1,                         Rachele%De Giuseppe%NULL%1,                         Ginevra%Biino%NULL%2,                         Ginevra%Biino%NULL%0,                         Ilaria%Vietti%NULL%1,                         Cristina%Pallavicini%NULL%1,                         Hellas%Cena%NULL%1,                         Emma%Ruiz Moreno%NULL%3,                         Emma%Ruiz Moreno%NULL%0,                         Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                         Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                         Sandro%Sperandei%NULL%1,                         Louise%Freebairn%NULL%1,                         Elizabeth%Conroy%NULL%1,                         Hir%Jani%NULL%1,                         Sandra%Marjanovic%NULL%1,                         Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                         Timothy%Olds%NULL%2,                         Timothy%Olds%NULL%0,                         Ty%Ferguson%NULL%1,                         François%Fraysse%NULL%2,                         François%Fraysse%NULL%0,                         Dorothea%Dumuid%NULL%1,                         Adrian%Esterman%NULL%1,                         Gilly A.%Hendrie%NULL%1,                         Wendy J.%Brown%NULL%1,                         Rajini%Lagiseti%NULL%1,                         Carol A.%Maher%NULL%1,                         Stephanie%Prince Ware%NULL%2,                         Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                         Ana-Belén%Fraile-Bermúdez%NULL%2,                         Ana-Belén%Fraile-Bermúdez%NULL%0,                         Batirtze San%Martín-Gamboa%NULL%2,                         Batirtze San%Martín-Gamboa%NULL%0,                         Silvia%Cepeda-Miguel%NULL%1,                         Borja%Doncel-García%NULL%2,                         Borja%Doncel-García%NULL%0,                         Ainhoa%Fernandez-Atutxa%NULL%2,                         Ainhoa%Fernandez-Atutxa%NULL%0,                         Amaia%Irazusta%NULL%1,                         Idoia%Zarrazquin%NULL%2,                         Idoia%Zarrazquin%NULL%0,                         Simona%Bo%NULL%4,                         Simona%Bo%NULL%0,                         Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                        Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                        Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                        Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                        Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                         Emma%Ward%NULL%2,                         Emma%Ward%NULL%0,                         Mizanur%Khondoker%NULL%1,                         Pippa%Belderson%NULL%1,                         Anne%Marie Minihane%NULL%1,                         Jack%Dainty%NULL%1,                         Sarah%Hanson%NULL%1,                         Richard%Holland%NULL%1,                         Tracey%Brown%NULL%1,                         Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                         Andrea D.%Smith%NULL%1,                         Feifei%Bu%NULL%1,                         Andrew%Steptoe%NULL%1,                         Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                         Chihiro%Munekawa%NULL%1,                         Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                         Takuro%Okamura%NULL%2,                         Takuro%Okamura%NULL%0,                         Fuyuko%Takahashi%NULL%1,                         Rena%Kawano%NULL%1,                         Hanako%Nakajima%NULL%1,                         Saori%Majima%NULL%1,                         Takafumi%Senmaru%NULL%1,                         Naoko%Nakanishi%NULL%1,                         Emi%Ushigome%NULL%1,                         Masahide%Hamaguchi%NULL%1,                         Masahiro%Yamazaki%NULL%1,                         Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                         Satomi%Kobayashi%NULL%1,                         Mai%Yamaguchi%NULL%1,                         Ryohei%Sakata%NULL%1,                         Yuki%Sasaki%NULL%1,                         Chiaki%Murayama%NULL%1,                         Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                         Luca%Pecoraro%NULL%1,                         Alessandro%Ferruzzi%NULL%1,                         Moonseong%Heo%NULL%1,                         Myles%Faith%NULL%1,                         Thomas%Zoller%NULL%2,                         Thomas%Zoller%NULL%0,                         Franco%Antoniazzi%NULL%1,                         Giorgio%Piacentini%NULL%1,                         S. Nicole%Fearnbach%NULL%1,                         Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                         Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                        Cignarelli%A.%coreGivesNoEmail%1,                        Di%Molfetta S.%coreGivesNoEmail%1,                        Giordano%F.%coreGivesNoEmail%1,                        Giorgino%F.%coreGivesNoEmail%1,                        Guarini%F.%coreGivesNoEmail%1,                        Laviola%L.%coreGivesNoEmail%1,                        Leonardini%A.%coreGivesNoEmail%1,                        Natalicchio%A.%coreGivesNoEmail%1,                        Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                         Valentina%Ponzo%NULL%1,                         Rosalba%Rosato%NULL%1,                         Elena%Scumaci%NULL%1,                         Ilaria%Goitre%NULL%1,                         Andrea%Benso%NULL%1,                         Sara%Belcastro%NULL%1,                         Chiara%Crespi%NULL%1,                         Franco%De Michieli%NULL%1,                         Ezio%Ghigo%NULL%1,                         Fabio%Broglio%NULL%1,                         Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1616,6 +1814,9 @@
       <c r="I1" t="s">
         <v>113</v>
       </c>
+      <c r="J1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1631,7 +1832,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1644,6 +1845,9 @@
       </c>
       <c r="I2" t="s">
         <v>315</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1864,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1673,6 +1877,9 @@
       </c>
       <c r="I3" t="s">
         <v>317</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4">
@@ -1689,7 +1896,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1702,6 +1909,9 @@
       </c>
       <c r="I4" t="s">
         <v>317</v>
+      </c>
+      <c r="J4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -1718,7 +1928,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1731,6 +1941,9 @@
       </c>
       <c r="I5" t="s">
         <v>315</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -1747,7 +1960,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1760,6 +1973,9 @@
       </c>
       <c r="I6" t="s">
         <v>315</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -1776,7 +1992,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1789,6 +2005,9 @@
       </c>
       <c r="I7" t="s">
         <v>322</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -1805,7 +2024,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1818,6 +2037,9 @@
       </c>
       <c r="I8" t="s">
         <v>315</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -1834,7 +2056,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1847,6 +2069,9 @@
       </c>
       <c r="I9" t="s">
         <v>317</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +2088,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1876,6 +2101,9 @@
       </c>
       <c r="I10" t="s">
         <v>326</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1892,7 +2120,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1905,6 +2133,9 @@
       </c>
       <c r="I11" t="s">
         <v>317</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1921,7 +2152,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1934,6 +2165,9 @@
       </c>
       <c r="I12" t="s">
         <v>315</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -1950,7 +2184,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1963,6 +2197,9 @@
       </c>
       <c r="I13" t="s">
         <v>322</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1979,7 +2216,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
@@ -1992,6 +2229,9 @@
       </c>
       <c r="I14" t="s">
         <v>315</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/95.xlsx
+++ b/Covid_19_Dataset_and_References/References/95.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="436">
   <si>
     <t>Doi</t>
   </si>
@@ -1443,6 +1443,84 @@
   </si>
   <si>
     <t>[Marianna%Pellegrini%NULL%1,                         Valentina%Ponzo%NULL%1,                         Rosalba%Rosato%NULL%1,                         Elena%Scumaci%NULL%1,                         Ilaria%Goitre%NULL%1,                         Andrea%Benso%NULL%1,                         Sara%Belcastro%NULL%1,                         Chiara%Crespi%NULL%1,                         Franco%De Michieli%NULL%1,                         Ezio%Ghigo%NULL%1,                         Fabio%Broglio%NULL%1,                         Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                          Silvia%Brazzo%NULL%1,                          Rachele%De Giuseppe%NULL%1,                          Ginevra%Biino%NULL%2,                          Ginevra%Biino%NULL%0,                          Ilaria%Vietti%NULL%1,                          Cristina%Pallavicini%NULL%1,                          Hellas%Cena%NULL%1,                          Emma%Ruiz Moreno%NULL%3,                          Emma%Ruiz Moreno%NULL%0,                          Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                          Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                          Sandro%Sperandei%NULL%1,                          Louise%Freebairn%NULL%1,                          Elizabeth%Conroy%NULL%1,                          Hir%Jani%NULL%1,                          Sandra%Marjanovic%NULL%1,                          Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                          Timothy%Olds%NULL%2,                          Timothy%Olds%NULL%0,                          Ty%Ferguson%NULL%1,                          François%Fraysse%NULL%2,                          François%Fraysse%NULL%0,                          Dorothea%Dumuid%NULL%1,                          Adrian%Esterman%NULL%1,                          Gilly A.%Hendrie%NULL%1,                          Wendy J.%Brown%NULL%1,                          Rajini%Lagiseti%NULL%1,                          Carol A.%Maher%NULL%1,                          Stephanie%Prince Ware%NULL%2,                          Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                          Ana-Belén%Fraile-Bermúdez%NULL%2,                          Ana-Belén%Fraile-Bermúdez%NULL%0,                          Batirtze San%Martín-Gamboa%NULL%2,                          Batirtze San%Martín-Gamboa%NULL%0,                          Silvia%Cepeda-Miguel%NULL%1,                          Borja%Doncel-García%NULL%2,                          Borja%Doncel-García%NULL%0,                          Ainhoa%Fernandez-Atutxa%NULL%2,                          Ainhoa%Fernandez-Atutxa%NULL%0,                          Amaia%Irazusta%NULL%1,                          Idoia%Zarrazquin%NULL%2,                          Idoia%Zarrazquin%NULL%0,                          Simona%Bo%NULL%4,                          Simona%Bo%NULL%0,                          Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                         Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                         Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                         Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                         Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                          Emma%Ward%NULL%2,                          Emma%Ward%NULL%0,                          Mizanur%Khondoker%NULL%1,                          Pippa%Belderson%NULL%1,                          Anne%Marie Minihane%NULL%1,                          Jack%Dainty%NULL%1,                          Sarah%Hanson%NULL%1,                          Richard%Holland%NULL%1,                          Tracey%Brown%NULL%1,                          Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                          Andrea D.%Smith%NULL%1,                          Feifei%Bu%NULL%1,                          Andrew%Steptoe%NULL%1,                          Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                          Chihiro%Munekawa%NULL%1,                          Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                          Takuro%Okamura%NULL%2,                          Takuro%Okamura%NULL%0,                          Fuyuko%Takahashi%NULL%1,                          Rena%Kawano%NULL%1,                          Hanako%Nakajima%NULL%1,                          Saori%Majima%NULL%1,                          Takafumi%Senmaru%NULL%1,                          Naoko%Nakanishi%NULL%1,                          Emi%Ushigome%NULL%1,                          Masahide%Hamaguchi%NULL%1,                          Masahiro%Yamazaki%NULL%1,                          Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                          Satomi%Kobayashi%NULL%1,                          Mai%Yamaguchi%NULL%1,                          Ryohei%Sakata%NULL%1,                          Yuki%Sasaki%NULL%1,                          Chiaki%Murayama%NULL%1,                          Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                          Luca%Pecoraro%NULL%1,                          Alessandro%Ferruzzi%NULL%1,                          Moonseong%Heo%NULL%1,                          Myles%Faith%NULL%1,                          Thomas%Zoller%NULL%2,                          Thomas%Zoller%NULL%0,                          Franco%Antoniazzi%NULL%1,                          Giorgio%Piacentini%NULL%1,                          S. Nicole%Fearnbach%NULL%1,                          Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                          Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                         Cignarelli%A.%coreGivesNoEmail%1,                         Di%Molfetta S.%coreGivesNoEmail%1,                         Giordano%F.%coreGivesNoEmail%1,                         Giorgino%F.%coreGivesNoEmail%1,                         Guarini%F.%coreGivesNoEmail%1,                         Laviola%L.%coreGivesNoEmail%1,                         Leonardini%A.%coreGivesNoEmail%1,                         Natalicchio%A.%coreGivesNoEmail%1,                         Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                          Valentina%Ponzo%NULL%1,                          Rosalba%Rosato%NULL%1,                          Elena%Scumaci%NULL%1,                          Ilaria%Goitre%NULL%1,                          Andrea%Benso%NULL%1,                          Sara%Belcastro%NULL%1,                          Chiara%Crespi%NULL%1,                          Franco%De Michieli%NULL%1,                          Ezio%Ghigo%NULL%1,                          Fabio%Broglio%NULL%1,                          Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Silvia%Maffoni%NULL%1,                           Silvia%Brazzo%NULL%1,                           Rachele%De Giuseppe%NULL%1,                           Ginevra%Biino%NULL%2,                           Ginevra%Biino%NULL%0,                           Ilaria%Vietti%NULL%1,                           Cristina%Pallavicini%NULL%1,                           Hellas%Cena%NULL%1,                           Emma%Ruiz Moreno%NULL%3,                           Emma%Ruiz Moreno%NULL%0,                           Emma%Ruiz Moreno%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jaideep%khare%NULL%1,                           Sushil%jindal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sithum%Munasinghe%NULL%1,                           Sandro%Sperandei%NULL%1,                           Louise%Freebairn%NULL%1,                           Elizabeth%Conroy%NULL%1,                           Hir%Jani%NULL%1,                           Sandra%Marjanovic%NULL%1,                           Andrew%Page%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rachel G.%Curtis%NULL%1,                           Timothy%Olds%NULL%2,                           Timothy%Olds%NULL%0,                           Ty%Ferguson%NULL%1,                           François%Fraysse%NULL%2,                           François%Fraysse%NULL%0,                           Dorothea%Dumuid%NULL%1,                           Adrian%Esterman%NULL%1,                           Gilly A.%Hendrie%NULL%1,                           Wendy J.%Brown%NULL%1,                           Rajini%Lagiseti%NULL%1,                           Carol A.%Maher%NULL%1,                           Stephanie%Prince Ware%NULL%2,                           Stephanie%Prince Ware%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Idoia%Imaz-Aramburu%NULL%1,                           Ana-Belén%Fraile-Bermúdez%NULL%2,                           Ana-Belén%Fraile-Bermúdez%NULL%0,                           Batirtze San%Martín-Gamboa%NULL%2,                           Batirtze San%Martín-Gamboa%NULL%0,                           Silvia%Cepeda-Miguel%NULL%1,                           Borja%Doncel-García%NULL%2,                           Borja%Doncel-García%NULL%0,                           Ainhoa%Fernandez-Atutxa%NULL%2,                           Ainhoa%Fernandez-Atutxa%NULL%0,                           Amaia%Irazusta%NULL%1,                           Idoia%Zarrazquin%NULL%2,                           Idoia%Zarrazquin%NULL%0,                           Simona%Bo%NULL%4,                           Simona%Bo%NULL%0,                           Simona%Bo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenaza%Lide%coreGivesNoEmail%1,                          Cadenas-S\u00e1nchez%Cristina%coreGivesNoEmail%1,                          Labayen%Go\u00f1i Idoia%coreGivesNoEmail%1,                          Medrano%Echeverr\u00eda Mar\u00eda%coreGivesNoEmail%1,                          Os\u00e9s%Recalde Maddi%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Felix%Naughton%f.naughton@uea.ac.uk%1,                           Emma%Ward%NULL%2,                           Emma%Ward%NULL%0,                           Mizanur%Khondoker%NULL%1,                           Pippa%Belderson%NULL%1,                           Anne%Marie Minihane%NULL%1,                           Jack%Dainty%NULL%1,                           Sarah%Hanson%NULL%1,                           Richard%Holland%NULL%1,                           Tracey%Brown%NULL%1,                           Caitlin%Notley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moritz%Herle%NULL%1,                           Andrea D.%Smith%NULL%1,                           Feifei%Bu%NULL%1,                           Andrew%Steptoe%NULL%1,                           Daisy%Fancourt%d.fancourt@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Yukako%Hosomi%NULL%1,                           Chihiro%Munekawa%NULL%1,                           Yoshitaka%Hashimoto%y-hashi@koto.kpu-m.ac.jp%1,                           Takuro%Okamura%NULL%2,                           Takuro%Okamura%NULL%0,                           Fuyuko%Takahashi%NULL%1,                           Rena%Kawano%NULL%1,                           Hanako%Nakajima%NULL%1,                           Saori%Majima%NULL%1,                           Takafumi%Senmaru%NULL%1,                           Naoko%Nakanishi%NULL%1,                           Emi%Ushigome%NULL%1,                           Masahide%Hamaguchi%NULL%1,                           Masahiro%Yamazaki%NULL%1,                           Michiaki%Fukui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Koryu%Sato%NULL%1,                           Satomi%Kobayashi%NULL%1,                           Mai%Yamaguchi%NULL%1,                           Ryohei%Sakata%NULL%1,                           Yuki%Sasaki%NULL%1,                           Chiaki%Murayama%NULL%1,                           Naoki%Kondo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Pietrobelli%NULL%1,                           Luca%Pecoraro%NULL%1,                           Alessandro%Ferruzzi%NULL%1,                           Moonseong%Heo%NULL%1,                           Myles%Faith%NULL%1,                           Thomas%Zoller%NULL%2,                           Thomas%Zoller%NULL%0,                           Franco%Antoniazzi%NULL%1,                           Giorgio%Piacentini%NULL%1,                           S. Nicole%Fearnbach%NULL%1,                           Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%2,                           Steven B.%Heymsfield%steven.heymsfield@pbrc.edu%0]</t>
+  </si>
+  <si>
+    <t>[Caruso%I.%coreGivesNoEmail%2,                          Cignarelli%A.%coreGivesNoEmail%1,                          Di%Molfetta S.%coreGivesNoEmail%1,                          Giordano%F.%coreGivesNoEmail%1,                          Giorgino%F.%coreGivesNoEmail%1,                          Guarini%F.%coreGivesNoEmail%1,                          Laviola%L.%coreGivesNoEmail%1,                          Leonardini%A.%coreGivesNoEmail%1,                          Natalicchio%A.%coreGivesNoEmail%1,                          Perrini%S.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Marianna%Pellegrini%NULL%1,                           Valentina%Ponzo%NULL%1,                           Rosalba%Rosato%NULL%1,                           Elena%Scumaci%NULL%1,                           Ilaria%Goitre%NULL%1,                           Andrea%Benso%NULL%1,                           Sara%Belcastro%NULL%1,                           Chiara%Crespi%NULL%1,                           Franco%De Michieli%NULL%1,                           Ezio%Ghigo%NULL%1,                           Fabio%Broglio%NULL%1,                           Simona%Bo%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1910,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1864,7 +1942,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1896,7 +1974,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1928,7 +2006,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1960,7 +2038,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1992,7 +2070,7 @@
         <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2024,7 +2102,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -2056,7 +2134,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -2088,7 +2166,7 @@
         <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -2120,7 +2198,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2152,7 +2230,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2184,7 +2262,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2216,7 +2294,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
